--- a/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
+++ b/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
@@ -1556,7 +1556,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1577,6 +1577,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,7 +1594,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1599,21 +1607,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1692,7 +1685,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -2188,10 +2181,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -2496,13 +2489,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -2515,16 +2508,19 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="6" t="n">
+        <v>45728</v>
+      </c>
+      <c r="D1" s="2" t="n">
         <v>45735</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="E1" s="2" t="n">
         <v>45742</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>45777</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2535,11 +2531,12 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="1"/>
+      <c r="E2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <f aca="false">SUM(C2:E2)</f>
+      <c r="G2" s="0" t="n">
+        <f aca="false">SUM(C2:F2)</f>
         <v>3</v>
       </c>
     </row>
@@ -2550,11 +2547,12 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="C3" s="1"/>
+      <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">SUM(C3:E3)</f>
+      <c r="G3" s="0" t="n">
+        <f aca="false">SUM(C3:F3)</f>
         <v>2</v>
       </c>
     </row>
@@ -2565,14 +2563,15 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <f aca="false">SUM(C4:E4)</f>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">SUM(C4:F4)</f>
         <v>2</v>
       </c>
     </row>
@@ -2583,17 +2582,18 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">SUM(C5:E5)</f>
+      <c r="G5" s="0" t="n">
+        <f aca="false">SUM(C5:F5)</f>
         <v>6</v>
       </c>
     </row>
@@ -2604,11 +2604,12 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">SUM(C6:E6)</f>
+      <c r="C6" s="1"/>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">SUM(C6:F6)</f>
         <v>1</v>
       </c>
     </row>
@@ -2619,8 +2620,9 @@
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">SUM(C7:E7)</f>
+      <c r="C7" s="1"/>
+      <c r="G7" s="0" t="n">
+        <f aca="false">SUM(C7:F7)</f>
         <v>0</v>
       </c>
     </row>
@@ -2631,17 +2633,18 @@
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <f aca="false">SUM(C8:E8)</f>
+      <c r="G8" s="0" t="n">
+        <f aca="false">SUM(C8:F8)</f>
         <v>7</v>
       </c>
     </row>
@@ -2652,17 +2655,18 @@
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1"/>
+      <c r="D9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">SUM(C9:E9)</f>
+      <c r="G9" s="0" t="n">
+        <f aca="false">SUM(C9:F9)</f>
         <v>5</v>
       </c>
     </row>
@@ -2673,17 +2677,18 @@
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <f aca="false">SUM(C10:E10)</f>
+      <c r="G10" s="0" t="n">
+        <f aca="false">SUM(C10:F10)</f>
         <v>4</v>
       </c>
     </row>
@@ -2694,11 +2699,12 @@
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="C11" s="1"/>
+      <c r="F11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">SUM(C11:E11)</f>
+      <c r="G11" s="0" t="n">
+        <f aca="false">SUM(C11:F11)</f>
         <v>2</v>
       </c>
     </row>
@@ -2709,17 +2715,18 @@
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <f aca="false">SUM(C12:E12)</f>
+      <c r="G12" s="0" t="n">
+        <f aca="false">SUM(C12:F12)</f>
         <v>7</v>
       </c>
     </row>
@@ -2730,14 +2737,15 @@
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <f aca="false">SUM(C13:E13)</f>
+      <c r="G13" s="0" t="n">
+        <f aca="false">SUM(C13:F13)</f>
         <v>3</v>
       </c>
     </row>
@@ -2748,11 +2756,12 @@
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="1"/>
+      <c r="E14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <f aca="false">SUM(C14:E14)</f>
+      <c r="G14" s="0" t="n">
+        <f aca="false">SUM(C14:F14)</f>
         <v>3</v>
       </c>
     </row>
@@ -2763,15 +2772,21 @@
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <f aca="false">SUM(C15:E15)</f>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">SUM(C15:F15)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,14 +2796,15 @@
       <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <f aca="false">SUM(C16:E16)</f>
+      <c r="G16" s="0" t="n">
+        <f aca="false">SUM(C16:F16)</f>
         <v>3</v>
       </c>
     </row>
@@ -2799,8 +2815,9 @@
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <f aca="false">SUM(C17:E17)</f>
+      <c r="C17" s="1"/>
+      <c r="G17" s="0" t="n">
+        <f aca="false">SUM(C17:F17)</f>
         <v>0</v>
       </c>
     </row>
@@ -2811,11 +2828,12 @@
       <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="C18" s="1"/>
+      <c r="E18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <f aca="false">SUM(C18:E18)</f>
+      <c r="G18" s="0" t="n">
+        <f aca="false">SUM(C18:F18)</f>
         <v>3</v>
       </c>
     </row>
@@ -2826,8 +2844,9 @@
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <f aca="false">SUM(C19:E19)</f>
+      <c r="C19" s="1"/>
+      <c r="G19" s="0" t="n">
+        <f aca="false">SUM(C19:F19)</f>
         <v>0</v>
       </c>
     </row>
@@ -2838,8 +2857,9 @@
       <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <f aca="false">SUM(C20:E20)</f>
+      <c r="C20" s="1"/>
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(C20:F20)</f>
         <v>0</v>
       </c>
     </row>
@@ -2850,17 +2870,18 @@
       <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <f aca="false">SUM(C21:E21)</f>
+      <c r="G21" s="0" t="n">
+        <f aca="false">SUM(C21:F21)</f>
         <v>6</v>
       </c>
     </row>
@@ -2871,9 +2892,7 @@
       <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>2</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="0" t="n">
         <v>2</v>
       </c>
@@ -2881,7 +2900,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <f aca="false">SUM(C22:E22)</f>
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">SUM(C22:F22)</f>
         <v>6</v>
       </c>
     </row>
@@ -2892,15 +2914,15 @@
       <c r="B23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="C23" s="1"/>
+      <c r="E23" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <f aca="false">SUM(C23:E23)</f>
+      <c r="G23" s="0" t="n">
+        <f aca="false">SUM(C23:F23)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2920,10 +2942,10 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
   </cols>
@@ -3011,7 +3033,7 @@
         <f aca="false">ROUND(AVERAGE(C2,E2,G2,L2),0)</f>
         <v>6</v>
       </c>
-      <c r="N2" s="0" t="str">
+      <c r="N2" s="5" t="str">
         <f aca="false">IF(M2&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3046,7 +3068,7 @@
         <f aca="false">ROUND(AVERAGE(C3,E3,G3,L3),0)</f>
         <v>8</v>
       </c>
-      <c r="N3" s="0" t="str">
+      <c r="N3" s="5" t="str">
         <f aca="false">IF(M3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3084,7 +3106,7 @@
         <f aca="false">ROUND(AVERAGE(C4,E4,G4,L4),0)</f>
         <v>6</v>
       </c>
-      <c r="N4" s="0" t="str">
+      <c r="N4" s="5" t="str">
         <f aca="false">IF(M4&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3119,7 +3141,7 @@
         <f aca="false">ROUND(AVERAGE(C5,E5,G5,L5),0)</f>
         <v>10</v>
       </c>
-      <c r="N5" s="0" t="str">
+      <c r="N5" s="5" t="str">
         <f aca="false">IF(M5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3157,7 +3179,7 @@
         <f aca="false">ROUND(AVERAGE(C6,E6,G6,L6),0)</f>
         <v>8</v>
       </c>
-      <c r="N6" s="0" t="str">
+      <c r="N6" s="5" t="str">
         <f aca="false">IF(M6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3198,7 +3220,7 @@
         <f aca="false">ROUND(AVERAGE(C7,E7,G7,L7),0)</f>
         <v>8</v>
       </c>
-      <c r="N7" s="0" t="str">
+      <c r="N7" s="5" t="str">
         <f aca="false">IF(M7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3233,7 +3255,7 @@
         <f aca="false">ROUND(AVERAGE(C8,E8,G8,L8),0)</f>
         <v>7</v>
       </c>
-      <c r="N8" s="0" t="str">
+      <c r="N8" s="5" t="str">
         <f aca="false">IF(M8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3268,7 +3290,7 @@
         <f aca="false">ROUND(AVERAGE(C9,E9,G9,L9),0)</f>
         <v>10</v>
       </c>
-      <c r="N9" s="0" t="str">
+      <c r="N9" s="5" t="str">
         <f aca="false">IF(M9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3309,7 +3331,7 @@
         <f aca="false">ROUND(AVERAGE(C10,E10,G10,L10),0)</f>
         <v>8</v>
       </c>
-      <c r="N10" s="0" t="str">
+      <c r="N10" s="5" t="str">
         <f aca="false">IF(M10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3347,7 +3369,7 @@
         <f aca="false">ROUND(AVERAGE(C11,E11,G11,L11),0)</f>
         <v>8</v>
       </c>
-      <c r="N11" s="0" t="str">
+      <c r="N11" s="5" t="str">
         <f aca="false">IF(M11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3385,7 +3407,7 @@
         <f aca="false">ROUND(AVERAGE(C12,E12,G12,L12),0)</f>
         <v>8</v>
       </c>
-      <c r="N12" s="0" t="str">
+      <c r="N12" s="5" t="str">
         <f aca="false">IF(M12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3420,7 +3442,7 @@
         <f aca="false">ROUND(AVERAGE(C13,E13,G13,L13),0)</f>
         <v>9</v>
       </c>
-      <c r="N13" s="0" t="str">
+      <c r="N13" s="5" t="str">
         <f aca="false">IF(M13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3455,7 +3477,7 @@
         <f aca="false">ROUND(AVERAGE(C14,E14,G14,L14),0)</f>
         <v>2</v>
       </c>
-      <c r="N14" s="0" t="str">
+      <c r="N14" s="5" t="str">
         <f aca="false">IF(M14&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3479,23 +3501,23 @@
       <c r="H15" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>4</v>
+      <c r="I15" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>45782</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">I15+K15/2</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,G15,L15),0)</f>
-        <v>6</v>
-      </c>
-      <c r="N15" s="0" t="str">
+        <v>7</v>
+      </c>
+      <c r="N15" s="5" t="str">
         <f aca="false">IF(M15&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
+        <v>TEA</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,7 +3553,7 @@
         <f aca="false">ROUND(AVERAGE(C16,E16,G16,L16),0)</f>
         <v>9</v>
       </c>
-      <c r="N16" s="0" t="str">
+      <c r="N16" s="5" t="str">
         <f aca="false">IF(M16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3566,7 +3588,7 @@
         <f aca="false">ROUND(AVERAGE(C17,E17,G17,L17),0)</f>
         <v>2</v>
       </c>
-      <c r="N17" s="0" t="str">
+      <c r="N17" s="5" t="str">
         <f aca="false">IF(M17&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3610,7 +3632,7 @@
         <f aca="false">ROUND(AVERAGE(C18,E18,G18,L18),0)</f>
         <v>6</v>
       </c>
-      <c r="N18" s="0" t="str">
+      <c r="N18" s="5" t="str">
         <f aca="false">IF(M18&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3645,7 +3667,7 @@
         <f aca="false">ROUND(AVERAGE(C19,E19,G19,L19),0)</f>
         <v>4</v>
       </c>
-      <c r="N19" s="0" t="str">
+      <c r="N19" s="5" t="str">
         <f aca="false">IF(M19&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3686,7 +3708,7 @@
         <f aca="false">ROUND(AVERAGE(C20,E20,G20,L20),0)</f>
         <v>6</v>
       </c>
-      <c r="N20" s="0" t="str">
+      <c r="N20" s="5" t="str">
         <f aca="false">IF(M20&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3730,7 +3752,7 @@
         <f aca="false">ROUND(AVERAGE(C21,E21,G21,L21),0)</f>
         <v>8</v>
       </c>
-      <c r="N21" s="0" t="str">
+      <c r="N21" s="5" t="str">
         <f aca="false">IF(M21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3774,7 +3796,7 @@
         <f aca="false">ROUND(AVERAGE(C22,E22,G22,L22),0)</f>
         <v>8</v>
       </c>
-      <c r="N22" s="0" t="str">
+      <c r="N22" s="5" t="str">
         <f aca="false">IF(M22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3812,7 +3834,7 @@
         <f aca="false">ROUND(AVERAGE(C23,E23,G23,L23),0)</f>
         <v>4</v>
       </c>
-      <c r="N23" s="0" t="str">
+      <c r="N23" s="5" t="str">
         <f aca="false">IF(M23&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3849,10 +3871,10 @@
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
   </cols>
   <sheetData>
@@ -4961,15 +4983,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
   </cols>
   <sheetData>
@@ -5099,16 +5121,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
   </cols>
   <sheetData>
@@ -5869,10 +5891,10 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.11"/>
   </cols>
@@ -6310,11 +6332,11 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
   </cols>
   <sheetData>
@@ -7430,7 +7452,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -7752,15 +7774,15 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.12"/>
   </cols>

--- a/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
+++ b/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="481">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">gerapuril@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lautaro Francisco</t>
   </si>
   <si>
@@ -126,9 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve">liamdifebo15@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Francisco Gael</t>
@@ -1556,7 +1556,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1570,10 +1570,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1679,17 +1675,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,6 +1708,21 @@
       <c r="F1" s="2" t="n">
         <v>45791</v>
       </c>
+      <c r="G1" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45840</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1729,6 +1741,21 @@
         <v>7</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1751,6 +1778,21 @@
       <c r="F3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1771,24 +1813,54 @@
       <c r="F4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1797,19 +1869,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,18 +1904,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1837,18 +1939,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1857,18 +1974,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1877,18 +2009,33 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1911,6 +2058,21 @@
       <c r="F11" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1931,6 +2093,21 @@
       <c r="F12" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1951,6 +2128,21 @@
       <c r="F13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1971,6 +2163,21 @@
       <c r="F14" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1991,6 +2198,21 @@
       <c r="F15" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2011,6 +2233,21 @@
       <c r="F16" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2029,7 +2266,22 @@
         <v>7</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,6 +2303,21 @@
       <c r="F18" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2071,6 +2338,21 @@
       <c r="F19" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2091,6 +2373,21 @@
       <c r="F20" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2111,6 +2408,21 @@
       <c r="F21" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2131,6 +2443,21 @@
       <c r="F22" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="G22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -2149,6 +2476,21 @@
         <v>7</v>
       </c>
       <c r="F23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2160,6 +2502,26 @@
       <c r="F24" s="0" t="n">
         <f aca="false">COUNTIF(F2:F23,"P")</f>
         <v>21</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G23,"P")</f>
+        <v>22</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H23,"P")</f>
+        <v>22</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I23,"P")</f>
+        <v>22</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">COUNTIF(J2:J23,"P")</f>
+        <v>22</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">COUNTIF(K2:K23,"P")</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2180,11 +2542,11 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -2256,7 +2618,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>460</v>
@@ -2273,7 +2635,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>462</v>
@@ -2491,11 +2853,11 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -2508,7 +2870,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5" t="n">
         <v>45728</v>
       </c>
       <c r="D1" s="2" t="n">
@@ -2580,7 +2942,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="0" t="n">
@@ -2602,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="0" t="n">
@@ -2618,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1"/>
       <c r="G7" s="0" t="n">
@@ -2631,7 +2993,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="0" t="n">
@@ -2653,7 +3015,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="0" t="n">
@@ -2675,7 +3037,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="0" t="n">
@@ -2941,11 +3303,11 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
   </cols>
@@ -3033,7 +3395,7 @@
         <f aca="false">ROUND(AVERAGE(C2,E2,G2,L2),0)</f>
         <v>6</v>
       </c>
-      <c r="N2" s="5" t="str">
+      <c r="N2" s="4" t="str">
         <f aca="false">IF(M2&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3068,7 +3430,7 @@
         <f aca="false">ROUND(AVERAGE(C3,E3,G3,L3),0)</f>
         <v>8</v>
       </c>
-      <c r="N3" s="5" t="str">
+      <c r="N3" s="4" t="str">
         <f aca="false">IF(M3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3087,28 +3449,31 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
+      <c r="I4" s="3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>45797</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">I4+K4/2</f>
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="M4" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,G4,L4),0)</f>
-        <v>6</v>
-      </c>
-      <c r="N4" s="5" t="str">
+        <v>8</v>
+      </c>
+      <c r="N4" s="4" t="str">
         <f aca="false">IF(M4&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
+        <v>TEA</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,7 +3481,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -3141,7 +3506,7 @@
         <f aca="false">ROUND(AVERAGE(C5,E5,G5,L5),0)</f>
         <v>10</v>
       </c>
-      <c r="N5" s="5" t="str">
+      <c r="N5" s="4" t="str">
         <f aca="false">IF(M5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3151,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>8</v>
@@ -3179,7 +3544,7 @@
         <f aca="false">ROUND(AVERAGE(C6,E6,G6,L6),0)</f>
         <v>8</v>
       </c>
-      <c r="N6" s="5" t="str">
+      <c r="N6" s="4" t="str">
         <f aca="false">IF(M6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3189,7 +3554,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
@@ -3220,7 +3585,7 @@
         <f aca="false">ROUND(AVERAGE(C7,E7,G7,L7),0)</f>
         <v>8</v>
       </c>
-      <c r="N7" s="5" t="str">
+      <c r="N7" s="4" t="str">
         <f aca="false">IF(M7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3230,7 +3595,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10</v>
@@ -3255,7 +3620,7 @@
         <f aca="false">ROUND(AVERAGE(C8,E8,G8,L8),0)</f>
         <v>7</v>
       </c>
-      <c r="N8" s="5" t="str">
+      <c r="N8" s="4" t="str">
         <f aca="false">IF(M8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3265,7 +3630,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>10</v>
@@ -3290,7 +3655,7 @@
         <f aca="false">ROUND(AVERAGE(C9,E9,G9,L9),0)</f>
         <v>10</v>
       </c>
-      <c r="N9" s="5" t="str">
+      <c r="N9" s="4" t="str">
         <f aca="false">IF(M9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3300,7 +3665,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>8</v>
@@ -3331,7 +3696,7 @@
         <f aca="false">ROUND(AVERAGE(C10,E10,G10,L10),0)</f>
         <v>8</v>
       </c>
-      <c r="N10" s="5" t="str">
+      <c r="N10" s="4" t="str">
         <f aca="false">IF(M10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3369,7 +3734,7 @@
         <f aca="false">ROUND(AVERAGE(C11,E11,G11,L11),0)</f>
         <v>8</v>
       </c>
-      <c r="N11" s="5" t="str">
+      <c r="N11" s="4" t="str">
         <f aca="false">IF(M11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3407,7 +3772,7 @@
         <f aca="false">ROUND(AVERAGE(C12,E12,G12,L12),0)</f>
         <v>8</v>
       </c>
-      <c r="N12" s="5" t="str">
+      <c r="N12" s="4" t="str">
         <f aca="false">IF(M12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3442,7 +3807,7 @@
         <f aca="false">ROUND(AVERAGE(C13,E13,G13,L13),0)</f>
         <v>9</v>
       </c>
-      <c r="N13" s="5" t="str">
+      <c r="N13" s="4" t="str">
         <f aca="false">IF(M13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3477,7 +3842,7 @@
         <f aca="false">ROUND(AVERAGE(C14,E14,G14,L14),0)</f>
         <v>2</v>
       </c>
-      <c r="N14" s="5" t="str">
+      <c r="N14" s="4" t="str">
         <f aca="false">IF(M14&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3515,7 +3880,7 @@
         <f aca="false">ROUND(AVERAGE(C15,E15,G15,L15),0)</f>
         <v>7</v>
       </c>
-      <c r="N15" s="5" t="str">
+      <c r="N15" s="4" t="str">
         <f aca="false">IF(M15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3553,7 +3918,7 @@
         <f aca="false">ROUND(AVERAGE(C16,E16,G16,L16),0)</f>
         <v>9</v>
       </c>
-      <c r="N16" s="5" t="str">
+      <c r="N16" s="4" t="str">
         <f aca="false">IF(M16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3588,7 +3953,7 @@
         <f aca="false">ROUND(AVERAGE(C17,E17,G17,L17),0)</f>
         <v>2</v>
       </c>
-      <c r="N17" s="5" t="str">
+      <c r="N17" s="4" t="str">
         <f aca="false">IF(M17&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3632,7 +3997,7 @@
         <f aca="false">ROUND(AVERAGE(C18,E18,G18,L18),0)</f>
         <v>6</v>
       </c>
-      <c r="N18" s="5" t="str">
+      <c r="N18" s="4" t="str">
         <f aca="false">IF(M18&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3667,7 +4032,7 @@
         <f aca="false">ROUND(AVERAGE(C19,E19,G19,L19),0)</f>
         <v>4</v>
       </c>
-      <c r="N19" s="5" t="str">
+      <c r="N19" s="4" t="str">
         <f aca="false">IF(M19&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3708,7 +4073,7 @@
         <f aca="false">ROUND(AVERAGE(C20,E20,G20,L20),0)</f>
         <v>6</v>
       </c>
-      <c r="N20" s="5" t="str">
+      <c r="N20" s="4" t="str">
         <f aca="false">IF(M20&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3752,7 +4117,7 @@
         <f aca="false">ROUND(AVERAGE(C21,E21,G21,L21),0)</f>
         <v>8</v>
       </c>
-      <c r="N21" s="5" t="str">
+      <c r="N21" s="4" t="str">
         <f aca="false">IF(M21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3796,7 +4161,7 @@
         <f aca="false">ROUND(AVERAGE(C22,E22,G22,L22),0)</f>
         <v>8</v>
       </c>
-      <c r="N22" s="5" t="str">
+      <c r="N22" s="4" t="str">
         <f aca="false">IF(M22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3834,7 +4199,7 @@
         <f aca="false">ROUND(AVERAGE(C23,E23,G23,L23),0)</f>
         <v>4</v>
       </c>
-      <c r="N23" s="5" t="str">
+      <c r="N23" s="4" t="str">
         <f aca="false">IF(M23&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3867,11 +4232,11 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -4181,10 +4546,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>119</v>
@@ -4204,10 +4569,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>121</v>
@@ -4232,7 +4597,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>123</v>
@@ -4246,7 +4611,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>125</v>
@@ -4263,10 +4628,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>127</v>
@@ -4286,10 +4651,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>129</v>
@@ -4309,10 +4674,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>131</v>
@@ -4332,10 +4697,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>133</v>
@@ -4360,7 +4725,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>135</v>
@@ -4374,7 +4739,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>119</v>
@@ -4388,7 +4753,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>138</v>
@@ -4985,11 +5350,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -5123,11 +5488,11 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -5297,10 +5662,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>214</v>
@@ -5320,10 +5685,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>216</v>
@@ -5343,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>218</v>
@@ -5371,7 +5736,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>220</v>
@@ -5385,7 +5750,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>221</v>
@@ -5402,10 +5767,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>223</v>
@@ -5430,7 +5795,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>225</v>
@@ -5447,10 +5812,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>227</v>
@@ -5470,10 +5835,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>229</v>
@@ -5498,7 +5863,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>231</v>
@@ -5512,7 +5877,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>233</v>
@@ -5526,7 +5891,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>235</v>
@@ -5540,7 +5905,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>237</v>
@@ -5554,7 +5919,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>239</v>
@@ -5568,7 +5933,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>241</v>
@@ -5887,11 +6252,11 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -5963,7 +6328,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>266</v>
@@ -5988,7 +6353,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>268</v>
@@ -6002,7 +6367,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>270</v>
@@ -6016,7 +6381,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>271</v>
@@ -6030,7 +6395,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>273</v>
@@ -6044,7 +6409,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>275</v>
@@ -6328,11 +6693,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -6506,10 +6871,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>319</v>
@@ -6534,7 +6899,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>321</v>
@@ -6548,7 +6913,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>323</v>
@@ -6562,7 +6927,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>325</v>
@@ -6576,7 +6941,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>327</v>
@@ -6590,7 +6955,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>329</v>
@@ -6604,7 +6969,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>331</v>
@@ -6618,7 +6983,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>333</v>
@@ -6632,7 +6997,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>335</v>
@@ -6646,7 +7011,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>337</v>
@@ -6660,7 +7025,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>339</v>
@@ -6674,7 +7039,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>341</v>
@@ -6691,10 +7056,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>343</v>
@@ -6714,10 +7079,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>345</v>
@@ -6742,7 +7107,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>347</v>
@@ -6756,7 +7121,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>349</v>
@@ -6770,7 +7135,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>351</v>
@@ -6784,7 +7149,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>353</v>
@@ -6801,10 +7166,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>355</v>
@@ -6829,7 +7194,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>357</v>
@@ -6846,10 +7211,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>359</v>
@@ -6869,10 +7234,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>361</v>
@@ -6897,7 +7262,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>363</v>
@@ -6911,7 +7276,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>365</v>
@@ -6925,7 +7290,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>367</v>
@@ -6939,7 +7304,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>369</v>
@@ -7448,11 +7813,11 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -7555,7 +7920,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>420</v>
@@ -7572,7 +7937,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>422</v>
@@ -7773,11 +8138,11 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -7866,10 +8231,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>442</v>
@@ -7889,10 +8254,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>444</v>
@@ -7912,7 +8277,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -7926,7 +8291,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -7940,10 +8305,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>446</v>
@@ -7968,7 +8333,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>448</v>
@@ -7982,7 +8347,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>450</v>
@@ -7999,10 +8364,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>452</v>

--- a/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
+++ b/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,8 @@
     <sheet name="4-Div Resist" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="4-Recup" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="positivos" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="5-parDarlington" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Evaluacion" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="550">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -44,6 +46,15 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
+    <t xml:space="preserve">obs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nota presen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lucila Yanel</t>
   </si>
   <si>
@@ -56,6 +67,9 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lourdes Elizabeth</t>
   </si>
   <si>
@@ -221,6 +235,9 @@
     <t xml:space="preserve">habibiaraceli08@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matías</t>
   </si>
   <si>
@@ -281,6 +298,15 @@
     <t xml:space="preserve">Valoracion</t>
   </si>
   <si>
+    <t xml:space="preserve">5-par darlington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finalizado</t>
   </si>
   <si>
@@ -1473,6 +1499,189 @@
   </si>
   <si>
     <t xml:space="preserve">Nro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 53 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 31 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 39 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 45 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 31 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 5 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 53 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 18 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 31 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 36 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 5 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 minutos 36 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 minutos 22 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 minutos 13 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 minutos 56 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 minutos 22 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 minutos 5 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 minutos 18 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 minutos 54 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 minutos 50 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 minutos 29 segundos</t>
   </si>
 </sst>
 </file>
@@ -1522,12 +1731,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1556,7 +1772,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1566,6 +1782,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1590,7 +1810,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1606,6 +1826,20 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1618,7 +1852,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1675,18 +1909,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,40 +1959,75 @@
       <c r="K1" s="2" t="n">
         <v>45840</v>
       </c>
+      <c r="L1" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">COUNTIF(E2:L2,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <f aca="false">ROUND(N2*10/$P$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,34 +2035,45 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:L3,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <f aca="false">ROUND(N3*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,34 +2081,45 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:L4,"P")</f>
         <v>7</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>14</v>
+      <c r="O4" s="3" t="n">
+        <f aca="false">ROUND(N4*10/$P$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,34 +2127,45 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:L5,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <f aca="false">ROUND(N5*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,34 +2173,45 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:L6,"P")</f>
         <v>7</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>14</v>
+      <c r="O6" s="3" t="n">
+        <f aca="false">ROUND(N6*10/$P$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,34 +2219,45 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:L7,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <f aca="false">ROUND(N7*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,34 +2265,45 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:L8,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <f aca="false">ROUND(N8*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,34 +2311,45 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:L9,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <f aca="false">ROUND(N9*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,34 +2357,45 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:L10,"P")</f>
         <v>7</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>7</v>
+      <c r="O10" s="3" t="n">
+        <f aca="false">ROUND(N10*10/$P$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,34 +2403,45 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:L11,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <f aca="false">ROUND(N11*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,34 +2449,45 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:L12,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <f aca="false">ROUND(N12*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2114,34 +2495,45 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:L13,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <f aca="false">ROUND(N13*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,34 +2541,45 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:L14,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <f aca="false">ROUND(N14*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,34 +2587,45 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:L15,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <f aca="false">ROUND(N15*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,34 +2633,45 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:L16,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <f aca="false">ROUND(N16*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,34 +2679,45 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:L17,"P")</f>
         <v>7</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>7</v>
+      <c r="O17" s="3" t="n">
+        <f aca="false">ROUND(N17*10/$P$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,34 +2725,45 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:L18,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <f aca="false">ROUND(N18*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,34 +2771,45 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:L19,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <f aca="false">ROUND(N19*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,34 +2817,48 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:L20,"P")</f>
         <v>7</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>7</v>
+      <c r="O20" s="3" t="n">
+        <f aca="false">ROUND(N20*10/$P$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,34 +2866,45 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:L21,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <f aca="false">ROUND(N21*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,34 +2912,45 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:L22,"P")</f>
         <v>7</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>7</v>
+      <c r="O22" s="3" t="n">
+        <f aca="false">ROUND(N22*10/$P$1,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,34 +2958,45 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:L23,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <f aca="false">ROUND(N23*10/$P$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,6 +3026,10 @@
       </c>
       <c r="K24" s="0" t="n">
         <f aca="false">COUNTIF(K2:K23,"P")</f>
+        <v>20</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">COUNTIF(L2:L23,"P")</f>
         <v>20</v>
       </c>
     </row>
@@ -2542,11 +3051,11 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -2559,33 +3068,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -2604,13 +3113,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -2618,13 +3127,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -2635,13 +3144,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>6</v>
@@ -2652,13 +3161,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>9</v>
@@ -2669,13 +3178,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>6</v>
@@ -2686,13 +3195,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>8</v>
@@ -2711,13 +3220,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
@@ -2725,13 +3234,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>8</v>
@@ -2742,13 +3251,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -2767,13 +3276,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -2781,13 +3290,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>9</v>
@@ -2798,13 +3307,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>8</v>
@@ -2823,13 +3332,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>6</v>
@@ -2851,26 +3360,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="9.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="n">
+      <c r="C1" s="6" t="n">
         <v>45728</v>
       </c>
       <c r="D1" s="2" t="n">
@@ -2883,15 +3393,48 @@
         <v>45777</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>79</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" s="0" t="n">
@@ -2901,13 +3444,28 @@
         <f aca="false">SUM(C2:F2)</f>
         <v>3</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
       <c r="F3" s="0" t="n">
@@ -2917,13 +3475,16 @@
         <f aca="false">SUM(C3:F3)</f>
         <v>2</v>
       </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="0" t="n">
@@ -2936,13 +3497,16 @@
         <f aca="false">SUM(C4:F4)</f>
         <v>2</v>
       </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="0" t="n">
@@ -2958,13 +3522,16 @@
         <f aca="false">SUM(C5:F5)</f>
         <v>6</v>
       </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="0" t="n">
@@ -2973,6 +3540,9 @@
       <c r="G6" s="0" t="n">
         <f aca="false">SUM(C6:F6)</f>
         <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,20 +3550,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1"/>
       <c r="G7" s="0" t="n">
         <f aca="false">SUM(C7:F7)</f>
         <v>0</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="0" t="n">
@@ -3009,13 +3582,16 @@
         <f aca="false">SUM(C8:F8)</f>
         <v>7</v>
       </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="0" t="n">
@@ -3031,13 +3607,16 @@
         <f aca="false">SUM(C9:F9)</f>
         <v>5</v>
       </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="0" t="n">
@@ -3053,13 +3632,16 @@
         <f aca="false">SUM(C10:F10)</f>
         <v>4</v>
       </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1"/>
       <c r="F11" s="0" t="n">
@@ -3069,13 +3651,16 @@
         <f aca="false">SUM(C11:F11)</f>
         <v>2</v>
       </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="0" t="n">
@@ -3091,13 +3676,16 @@
         <f aca="false">SUM(C12:F12)</f>
         <v>7</v>
       </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" s="0" t="n">
@@ -3110,13 +3698,16 @@
         <f aca="false">SUM(C13:F13)</f>
         <v>3</v>
       </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14" s="0" t="n">
@@ -3126,13 +3717,16 @@
         <f aca="false">SUM(C14:F14)</f>
         <v>3</v>
       </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1</v>
@@ -3150,13 +3744,16 @@
         <f aca="false">SUM(C15:F15)</f>
         <v>6</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1"/>
       <c r="E16" s="0" t="n">
@@ -3169,26 +3766,32 @@
         <f aca="false">SUM(C16:F16)</f>
         <v>3</v>
       </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1"/>
       <c r="G17" s="0" t="n">
         <f aca="false">SUM(C17:F17)</f>
         <v>0</v>
       </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1"/>
       <c r="E18" s="0" t="n">
@@ -3198,39 +3801,48 @@
         <f aca="false">SUM(C18:F18)</f>
         <v>3</v>
       </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1"/>
       <c r="G19" s="0" t="n">
         <f aca="false">SUM(C19:F19)</f>
         <v>0</v>
       </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1"/>
       <c r="G20" s="0" t="n">
         <f aca="false">SUM(C20:F20)</f>
         <v>0</v>
       </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="0" t="n">
@@ -3246,13 +3858,16 @@
         <f aca="false">SUM(C21:F21)</f>
         <v>6</v>
       </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="0" t="n">
@@ -3268,13 +3883,16 @@
         <f aca="false">SUM(C22:F22)</f>
         <v>6</v>
       </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1"/>
       <c r="E23" s="0" t="n">
@@ -3283,6 +3901,1478 @@
       <c r="G23" s="0" t="n">
         <f aca="false">SUM(C23:F23)</f>
         <v>3</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">AVERAGE(F5:F13)</f>
+        <v>6.88888888888889</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">ROUND(MAX(H5,G5),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">AVERAGE(F15:F20)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">ROUND(MAX(H15,G15),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">AVERAGE(F22:F23)</f>
+        <v>9.5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">ROUND(MAX(H22,G22),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">AVERAGE(F27:F29)</f>
+        <v>8.33333333333333</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">ROUND(MAX(H27,G27),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">AVERAGE(F31:F33)</f>
+        <v>8.33333333333333</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">ROUND(MAX(H31,G31),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">AVERAGE(F35:F36)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <f aca="false">ROUND(MAX(H35,G35),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">AVERAGE(F39:F42)</f>
+        <v>6.5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">ROUND(MAX(H39,G39),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">AVERAGE(F45:F51)</f>
+        <v>7.57142857142857</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <f aca="false">ROUND(MAX(H45,G45),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I51,"&gt;0")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3301,14 +5391,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
   </cols>
   <sheetData>
@@ -3320,40 +5411,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,24 +5464,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4" t="n">
         <v>7</v>
       </c>
       <c r="J2" s="2" t="n">
@@ -3391,13 +5494,26 @@
         <f aca="false">I2+K2/2</f>
         <v>8.5</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C2,E2,G2,L2),0)</f>
         <v>6</v>
       </c>
-      <c r="N2" s="4" t="str">
+      <c r="N2" s="0" t="str">
         <f aca="false">IF(M2&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O2:Q2,M2),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,7 +5521,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>8</v>
@@ -3426,13 +5542,26 @@
         <f aca="false">I3+K3/2</f>
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C3,E3,G3,L3),0)</f>
         <v>8</v>
       </c>
-      <c r="N3" s="4" t="str">
+      <c r="N3" s="0" t="str">
         <f aca="false">IF(M3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O3:Q3,M3),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -3448,13 +5577,13 @@
       <c r="E4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>7</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>7.5</v>
       </c>
       <c r="J4" s="2" t="n">
@@ -3467,13 +5596,26 @@
         <f aca="false">I4+K4/2</f>
         <v>8.5</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,G4,L4),0)</f>
         <v>8</v>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="N4" s="0" t="str">
         <f aca="false">IF(M4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O4:Q4,M4),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,7 +5623,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -3502,13 +5644,26 @@
         <f aca="false">I5+K5/2</f>
         <v>11</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,G5,L5),0)</f>
         <v>10</v>
       </c>
-      <c r="N5" s="4" t="str">
+      <c r="N5" s="0" t="str">
         <f aca="false">IF(M5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O5:Q5,M5),0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,12 +5671,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
@@ -3540,13 +5695,26 @@
         <f aca="false">I6+K6/2</f>
         <v>8.5</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,G6,L6),0)</f>
         <v>8</v>
       </c>
-      <c r="N6" s="4" t="str">
+      <c r="N6" s="0" t="str">
         <f aca="false">IF(M6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O6:Q6,M6),0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,7 +5722,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
@@ -3562,13 +5730,13 @@
       <c r="E7" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>8</v>
       </c>
       <c r="J7" s="2" t="n">
@@ -3581,13 +5749,26 @@
         <f aca="false">I7+K7/2</f>
         <v>8</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,G7,L7),0)</f>
         <v>8</v>
       </c>
-      <c r="N7" s="4" t="str">
+      <c r="N7" s="0" t="str">
         <f aca="false">IF(M7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O7:Q7,M7),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,7 +5776,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10</v>
@@ -3616,21 +5797,34 @@
         <f aca="false">I8+K8/2</f>
         <v>4.5</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,G8,L8),0)</f>
         <v>7</v>
       </c>
-      <c r="N8" s="4" t="str">
+      <c r="N8" s="0" t="str">
         <f aca="false">IF(M8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="O8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O8:Q8,M8),0)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>10</v>
@@ -3651,13 +5845,26 @@
         <f aca="false">I9+K9/2</f>
         <v>9.5</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,G9,L9),0)</f>
         <v>10</v>
       </c>
-      <c r="N9" s="4" t="str">
+      <c r="N9" s="0" t="str">
         <f aca="false">IF(M9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O9:Q9,M9),0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,7 +5872,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>8</v>
@@ -3673,13 +5880,13 @@
       <c r="E10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>8</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="2" t="n">
@@ -3692,21 +5899,34 @@
         <f aca="false">I10+K10/2</f>
         <v>8</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,G10,L10),0)</f>
         <v>8</v>
       </c>
-      <c r="N10" s="4" t="str">
+      <c r="N10" s="0" t="str">
         <f aca="false">IF(M10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="O10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O10:Q10,M10),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
@@ -3717,7 +5937,7 @@
       <c r="G11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>9</v>
       </c>
       <c r="J11" s="2" t="n">
@@ -3730,13 +5950,26 @@
         <f aca="false">I11+K11/2</f>
         <v>10</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,G11,L11),0)</f>
         <v>8</v>
       </c>
-      <c r="N11" s="4" t="str">
+      <c r="N11" s="0" t="str">
         <f aca="false">IF(M11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O11:Q11,M11),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,7 +5977,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>8</v>
@@ -3755,7 +5988,7 @@
       <c r="G12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="2" t="n">
@@ -3768,13 +6001,26 @@
         <f aca="false">I12+K12/2</f>
         <v>9.5</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,G12,L12),0)</f>
         <v>8</v>
       </c>
-      <c r="N12" s="4" t="str">
+      <c r="N12" s="0" t="str">
         <f aca="false">IF(M12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O12:Q12,M12),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,7 +6028,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>10</v>
@@ -3803,13 +6049,26 @@
         <f aca="false">I13+K13/2</f>
         <v>11.5</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,G13,L13),0)</f>
         <v>9</v>
       </c>
-      <c r="N13" s="4" t="str">
+      <c r="N13" s="0" t="str">
         <f aca="false">IF(M13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O13:Q13,M13),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,7 +6076,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2</v>
@@ -3838,13 +6097,26 @@
         <f aca="false">I14+K14/2</f>
         <v>2.5</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,G14,L14),0)</f>
         <v>2</v>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="N14" s="0" t="str">
         <f aca="false">IF(M14&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O14:Q14,M14),0)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,7 +6124,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
@@ -3860,13 +6132,13 @@
       <c r="E15" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="4" t="n">
         <v>6</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="2" t="n">
@@ -3876,13 +6148,26 @@
         <f aca="false">I15+K15/2</f>
         <v>6</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,G15,L15),0)</f>
         <v>7</v>
       </c>
-      <c r="N15" s="4" t="str">
+      <c r="N15" s="0" t="str">
         <f aca="false">IF(M15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O15:Q15,M15),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3890,7 +6175,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>8</v>
@@ -3901,7 +6186,7 @@
       <c r="G16" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <v>7</v>
       </c>
       <c r="J16" s="2" t="n">
@@ -3914,13 +6199,26 @@
         <f aca="false">I16+K16/2</f>
         <v>8.5</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,G16,L16),0)</f>
         <v>9</v>
       </c>
-      <c r="N16" s="4" t="str">
+      <c r="N16" s="0" t="str">
         <f aca="false">IF(M16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O16:Q16,M16),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +6226,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -3949,13 +6247,26 @@
         <f aca="false">I17+K17/2</f>
         <v>1</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,G17,L17),0)</f>
         <v>2</v>
       </c>
-      <c r="N17" s="4" t="str">
+      <c r="N17" s="0" t="str">
         <f aca="false">IF(M17&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O17:Q17,M17),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,24 +6274,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="4" t="n">
         <v>3</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="4" t="n">
         <v>8</v>
       </c>
       <c r="J18" s="2" t="n">
@@ -3993,13 +6304,26 @@
         <f aca="false">I18+K18/2</f>
         <v>9.5</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C18,E18,G18,L18),0)</f>
         <v>6</v>
       </c>
-      <c r="N18" s="4" t="str">
+      <c r="N18" s="0" t="str">
         <f aca="false">IF(M18&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O18:Q18,M18),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,7 +6331,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>8</v>
@@ -4028,13 +6352,26 @@
         <f aca="false">I19+K19/2</f>
         <v>1</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C19,E19,G19,L19),0)</f>
         <v>4</v>
       </c>
-      <c r="N19" s="4" t="str">
+      <c r="N19" s="0" t="str">
         <f aca="false">IF(M19&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O19:Q19,M19),0)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4042,7 +6379,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>6</v>
@@ -4050,13 +6387,13 @@
       <c r="E20" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="4" t="n">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="4" t="n">
         <v>4</v>
       </c>
       <c r="J20" s="2" t="n">
@@ -4069,13 +6406,26 @@
         <f aca="false">I20+K20/2</f>
         <v>4</v>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="M20" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,G20,L20),0)</f>
         <v>6</v>
       </c>
-      <c r="N20" s="4" t="str">
+      <c r="N20" s="0" t="str">
         <f aca="false">IF(M20&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O20:Q20,M20),0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,24 +6433,24 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <v>4</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="4" t="n">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="4" t="n">
         <v>9</v>
       </c>
       <c r="J21" s="2" t="n">
@@ -4113,13 +6463,26 @@
         <f aca="false">I21+K21/2</f>
         <v>12</v>
       </c>
-      <c r="M21" s="4" t="n">
+      <c r="M21" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C21,E21,G21,L21),0)</f>
         <v>8</v>
       </c>
-      <c r="N21" s="4" t="str">
+      <c r="N21" s="0" t="str">
         <f aca="false">IF(M21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O21:Q21,M21),0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,9 +6490,9 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4" t="n">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="n">
@@ -4138,13 +6501,13 @@
       <c r="E22" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="4" t="n">
         <v>7</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="4" t="n">
         <v>7</v>
       </c>
       <c r="J22" s="2" t="n">
@@ -4157,13 +6520,26 @@
         <f aca="false">I22+K22/2</f>
         <v>10</v>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="M22" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C22,E22,G22,L22),0)</f>
         <v>8</v>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="N22" s="0" t="str">
         <f aca="false">IF(M22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O22:Q22,M22),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,7 +6547,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -4179,7 +6555,7 @@
       <c r="E23" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="4" t="n">
         <v>4</v>
       </c>
       <c r="H23" s="2" t="n">
@@ -4195,13 +6571,26 @@
         <f aca="false">I23+K23/2</f>
         <v>2.5</v>
       </c>
-      <c r="M23" s="4" t="n">
+      <c r="M23" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C23,E23,G23,L23),0)</f>
         <v>4</v>
       </c>
-      <c r="N23" s="4" t="str">
+      <c r="N23" s="0" t="str">
         <f aca="false">IF(M23&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O23:Q23,M23),0)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4213,6 +6602,11 @@
   <conditionalFormatting sqref="N2:N23">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R23">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4232,11 +6626,11 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -4248,22 +6642,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,16 +6665,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7.78</v>
@@ -4299,13 +6693,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5.56</v>
@@ -4316,16 +6710,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -4344,13 +6738,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -4358,13 +6752,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6.67</v>
@@ -4372,13 +6766,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5.56</v>
@@ -4386,13 +6780,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>5.56</v>
@@ -4403,16 +6797,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -4431,13 +6825,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.89</v>
@@ -4445,13 +6839,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7.78</v>
@@ -4459,13 +6853,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7.78</v>
@@ -4473,13 +6867,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>6.67</v>
@@ -4487,13 +6881,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5.56</v>
@@ -4501,13 +6895,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2.22</v>
@@ -4515,13 +6909,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2.22</v>
@@ -4529,13 +6923,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2.22</v>
@@ -4546,16 +6940,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -4569,16 +6963,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -4597,13 +6991,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7.78</v>
@@ -4611,13 +7005,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2.22</v>
@@ -4628,16 +7022,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>6.67</v>
@@ -4651,16 +7045,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -4674,16 +7068,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -4697,16 +7091,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -4725,13 +7119,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7.78</v>
@@ -4739,13 +7133,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>3.33</v>
@@ -4753,13 +7147,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>2.22</v>
@@ -4770,16 +7164,16 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -4793,16 +7187,16 @@
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -4821,13 +7215,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>5.56</v>
@@ -4838,16 +7232,16 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -4861,16 +7255,16 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2.22</v>
@@ -4884,16 +7278,16 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>7.78</v>
@@ -4907,16 +7301,16 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -4935,13 +7329,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>7.78</v>
@@ -4949,13 +7343,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>5.56</v>
@@ -4963,13 +7357,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>4.44</v>
@@ -4977,13 +7371,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>4.44</v>
@@ -4994,7 +7388,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1</v>
@@ -5008,16 +7402,16 @@
         <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>4.44</v>
@@ -5031,16 +7425,16 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -5059,13 +7453,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>7.78</v>
@@ -5073,13 +7467,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>4.44</v>
@@ -5087,13 +7481,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>4.44</v>
@@ -5101,13 +7495,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>4.44</v>
@@ -5115,13 +7509,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>3.33</v>
@@ -5132,16 +7526,16 @@
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7.78</v>
@@ -5160,13 +7554,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>3.33</v>
@@ -5177,16 +7571,16 @@
         <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>10</v>
@@ -5205,13 +7599,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>8.89</v>
@@ -5219,13 +7613,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>4.44</v>
@@ -5233,13 +7627,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>3.33</v>
@@ -5250,16 +7644,16 @@
         <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>7.78</v>
@@ -5278,13 +7672,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>7.78</v>
@@ -5292,13 +7686,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7.78</v>
@@ -5306,13 +7700,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2.22</v>
@@ -5323,7 +7717,7 @@
         <v>22</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
@@ -5350,11 +7744,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -5365,33 +7759,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -5402,13 +7796,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>9</v>
@@ -5427,13 +7821,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>9</v>
@@ -5441,13 +7835,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>6</v>
@@ -5455,13 +7849,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>6</v>
@@ -5488,11 +7882,11 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -5504,22 +7898,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5527,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1</v>
@@ -5538,16 +7932,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -5561,16 +7955,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -5589,13 +7983,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -5603,13 +7997,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -5617,13 +8011,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -5631,13 +8025,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6</v>
@@ -5645,13 +8039,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>4</v>
@@ -5662,16 +8056,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -5685,16 +8079,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -5708,16 +8102,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -5736,13 +8130,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -5750,13 +8144,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -5767,16 +8161,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -5795,13 +8189,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6</v>
@@ -5812,21 +8206,21 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5835,16 +8229,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -5863,13 +8257,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -5877,13 +8271,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>6</v>
@@ -5891,13 +8285,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>6</v>
@@ -5905,13 +8299,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>4</v>
@@ -5919,13 +8313,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -5933,13 +8327,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>4</v>
@@ -5950,16 +8344,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -5973,16 +8367,16 @@
         <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5996,16 +8390,16 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -6019,7 +8413,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
@@ -6033,16 +8427,16 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>6</v>
@@ -6056,16 +8450,16 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -6079,16 +8473,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>4</v>
@@ -6102,7 +8496,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -6116,16 +8510,16 @@
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>4</v>
@@ -6139,16 +8533,16 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -6162,7 +8556,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1</v>
@@ -6176,16 +8570,16 @@
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>8</v>
@@ -6199,16 +8593,16 @@
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>8</v>
@@ -6252,11 +8646,11 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -6269,33 +8663,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -6314,13 +8708,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5.6</v>
@@ -6328,13 +8722,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -6353,13 +8747,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>7.2</v>
@@ -6367,13 +8761,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>6</v>
@@ -6381,13 +8775,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
@@ -6395,13 +8789,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>3.6</v>
@@ -6409,13 +8803,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1.8</v>
@@ -6423,13 +8817,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>6</v>
@@ -6448,13 +8842,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -6462,13 +8856,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>7</v>
@@ -6487,13 +8881,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5.6</v>
@@ -6501,13 +8895,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4.2</v>
@@ -6515,13 +8909,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2.8</v>
@@ -6529,13 +8923,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>6</v>
@@ -6554,13 +8948,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>4</v>
@@ -6568,13 +8962,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -6582,13 +8976,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -6596,13 +8990,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -6610,13 +9004,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>5.4</v>
@@ -6635,13 +9029,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5.4</v>
@@ -6649,13 +9043,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5.4</v>
@@ -6663,13 +9057,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>5.4</v>
@@ -6693,11 +9087,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -6710,22 +9104,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -6747,16 +9141,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -6775,13 +9169,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -6789,13 +9183,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -6803,13 +9197,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -6817,13 +9211,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>4</v>
@@ -6831,13 +9225,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -6848,21 +9242,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6871,16 +9265,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -6899,13 +9293,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -6913,13 +9307,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -6927,13 +9321,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>6</v>
@@ -6941,13 +9335,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>6</v>
@@ -6955,13 +9349,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -6969,13 +9363,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6</v>
@@ -6983,13 +9377,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -6997,13 +9391,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>4</v>
@@ -7011,13 +9405,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>4</v>
@@ -7025,13 +9419,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2</v>
@@ -7039,13 +9433,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2</v>
@@ -7056,16 +9450,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -7079,16 +9473,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
@@ -7107,13 +9501,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>4</v>
@@ -7121,13 +9515,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>4</v>
@@ -7135,13 +9529,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2</v>
@@ -7149,13 +9543,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>2</v>
@@ -7166,16 +9560,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -7194,13 +9588,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>4</v>
@@ -7211,16 +9605,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -7234,16 +9628,16 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>4</v>
@@ -7262,13 +9656,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2</v>
@@ -7276,13 +9670,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2</v>
@@ -7290,13 +9684,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2</v>
@@ -7304,13 +9698,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2</v>
@@ -7321,16 +9715,16 @@
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>4</v>
@@ -7349,13 +9743,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2</v>
@@ -7363,13 +9757,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2</v>
@@ -7377,13 +9771,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2</v>
@@ -7394,16 +9788,16 @@
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>6</v>
@@ -7417,16 +9811,16 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>6</v>
@@ -7445,13 +9839,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>6</v>
@@ -7462,7 +9856,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1</v>
@@ -7476,16 +9870,16 @@
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>6</v>
@@ -7499,16 +9893,16 @@
         <v>15</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>8</v>
@@ -7522,7 +9916,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
@@ -7536,7 +9930,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
@@ -7550,7 +9944,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
@@ -7564,16 +9958,16 @@
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>4</v>
@@ -7592,13 +9986,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2</v>
@@ -7606,13 +10000,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2</v>
@@ -7620,13 +10014,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2</v>
@@ -7634,13 +10028,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2</v>
@@ -7651,7 +10045,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>1</v>
@@ -7665,16 +10059,16 @@
         <v>21</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>6</v>
@@ -7693,13 +10087,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>6</v>
@@ -7707,13 +10101,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>6</v>
@@ -7721,13 +10115,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>6</v>
@@ -7735,13 +10129,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>4</v>
@@ -7749,13 +10143,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>4</v>
@@ -7763,13 +10157,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2</v>
@@ -7780,7 +10174,7 @@
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1</v>
@@ -7813,11 +10207,11 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -7830,33 +10224,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
@@ -7867,13 +10261,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -7892,13 +10286,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>5</v>
@@ -7906,13 +10300,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
@@ -7920,13 +10314,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>7</v>
@@ -7937,13 +10331,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -7954,13 +10348,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>6</v>
@@ -7971,13 +10365,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3</v>
@@ -7988,13 +10382,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>6</v>
@@ -8013,13 +10407,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3</v>
@@ -8027,13 +10421,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>5</v>
@@ -8044,13 +10438,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>8</v>
@@ -8069,13 +10463,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>5</v>
@@ -8083,13 +10477,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>5</v>
@@ -8108,13 +10502,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -8138,11 +10532,11 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -8157,22 +10551,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8180,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -8194,16 +10588,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -8217,7 +10611,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -8231,16 +10625,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -8254,16 +10648,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -8277,7 +10671,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -8291,7 +10685,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -8305,16 +10699,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -8333,13 +10727,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -8347,13 +10741,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -8364,16 +10758,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -8387,7 +10781,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -8401,7 +10795,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -8415,16 +10809,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -8438,7 +10832,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -8452,7 +10846,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -8466,7 +10860,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -8480,7 +10874,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -8494,7 +10888,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -8508,7 +10902,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -8522,7 +10916,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -8536,7 +10930,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -8550,7 +10944,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -8564,7 +10958,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>

--- a/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
+++ b/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="positivos" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="5-parDarlington" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Evaluacion" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Recuperacoin" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="554">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -1682,6 +1683,18 @@
   </si>
   <si>
     <t xml:space="preserve">51 minutos 29 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apellido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Act fij polariz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- par darlington</t>
   </si>
 </sst>
 </file>
@@ -1912,10 +1925,10 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -3055,7 +3068,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -3366,7 +3379,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -3928,7 +3941,7 @@
       <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.34"/>
@@ -4912,7 +4925,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.33"/>
@@ -5372,6 +5385,59 @@
         <v>549</v>
       </c>
       <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5393,11 +5459,11 @@
   </sheetPr>
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -6630,7 +6696,7 @@
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -7748,7 +7814,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -7886,7 +7952,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -8650,7 +8716,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -9091,7 +9157,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -10211,7 +10277,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -10536,7 +10602,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>

--- a/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
+++ b/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="559">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -306,6 +306,21 @@
   </si>
   <si>
     <t xml:space="preserve">Asistencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup 6-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup Agosto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprobo con Chaya y Casas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se fue</t>
   </si>
   <si>
     <t xml:space="preserve">Finalizado</t>
@@ -1730,7 +1745,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1740,7 +1755,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFEB3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB3B"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+        <bgColor rgb="FFFF9800"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9800"/>
+        <bgColor rgb="FFFFC107"/>
       </patternFill>
     </fill>
   </fills>
@@ -1785,7 +1818,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1810,6 +1843,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1823,7 +1880,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1852,6 +1909,15 @@
           <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="12"/>
+      </font>
     </dxf>
   </dxfs>
   <colors>
@@ -1882,7 +1948,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFEB3B"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1899,8 +1965,8 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFFC107"/>
+      <rgbColor rgb="FFFF9800"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1924,11 +1990,11 @@
   </sheetPr>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -3064,11 +3130,11 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -3081,22 +3147,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,10 +3170,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -3129,10 +3195,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -3143,10 +3209,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -3160,10 +3226,10 @@
         <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>6</v>
@@ -3177,10 +3243,10 @@
         <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>9</v>
@@ -3194,10 +3260,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>6</v>
@@ -3211,10 +3277,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>8</v>
@@ -3236,10 +3302,10 @@
         <v>53</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
@@ -3250,10 +3316,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>8</v>
@@ -3267,10 +3333,10 @@
         <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -3292,10 +3358,10 @@
         <v>65</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -3306,10 +3372,10 @@
         <v>69</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>9</v>
@@ -3323,10 +3389,10 @@
         <v>72</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>8</v>
@@ -3348,10 +3414,10 @@
         <v>72</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>6</v>
@@ -3375,11 +3441,11 @@
   </sheetPr>
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -3388,12 +3454,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="12" t="n">
         <v>45728</v>
       </c>
       <c r="D1" s="2" t="n">
@@ -3458,19 +3524,19 @@
         <v>3</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,11 +4003,11 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.34"/>
@@ -3956,19 +4022,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3985,7 +4051,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -4008,7 +4074,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -4031,7 +4097,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -4054,7 +4120,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -4079,7 +4145,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -4093,7 +4159,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7</v>
@@ -4107,7 +4173,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
@@ -4121,7 +4187,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -4135,7 +4201,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -4149,7 +4215,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -4163,7 +4229,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>5</v>
@@ -4177,7 +4243,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>4</v>
@@ -4211,7 +4277,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -4236,7 +4302,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -4250,7 +4316,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -4264,7 +4330,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -4278,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>6</v>
@@ -4292,7 +4358,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5</v>
@@ -4312,7 +4378,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -4335,7 +4401,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -4360,7 +4426,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -4380,7 +4446,7 @@
         <v>34</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -4417,7 +4483,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7</v>
@@ -4440,7 +4506,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -4465,7 +4531,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -4479,7 +4545,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>5</v>
@@ -4513,7 +4579,7 @@
         <v>49</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -4538,7 +4604,7 @@
         <v>49</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -4552,7 +4618,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>6</v>
@@ -4572,7 +4638,7 @@
         <v>52</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>8</v>
@@ -4595,7 +4661,7 @@
         <v>55</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>8</v>
@@ -4620,7 +4686,7 @@
         <v>55</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>7</v>
@@ -4640,7 +4706,7 @@
         <v>58</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>8</v>
@@ -4677,7 +4743,7 @@
         <v>64</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>7</v>
@@ -4702,7 +4768,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>7</v>
@@ -4716,7 +4782,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>6</v>
@@ -4730,7 +4796,7 @@
         <v>64</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>6</v>
@@ -4764,7 +4830,7 @@
         <v>71</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>8</v>
@@ -4787,7 +4853,7 @@
         <v>74</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>10</v>
@@ -4812,7 +4878,7 @@
         <v>74</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>9</v>
@@ -4826,7 +4892,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>9</v>
@@ -4840,7 +4906,7 @@
         <v>74</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7</v>
@@ -4854,7 +4920,7 @@
         <v>74</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>7</v>
@@ -4868,7 +4934,7 @@
         <v>74</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>6</v>
@@ -4882,7 +4948,7 @@
         <v>74</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>5</v>
@@ -4890,7 +4956,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H52" s="0" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="I52" s="0" t="n">
         <f aca="false">COUNTIF(I2:I51,"&gt;0")</f>
@@ -4921,11 +4987,11 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.33"/>
@@ -4942,10 +5008,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4962,7 +5028,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7.5</v>
@@ -4982,7 +5048,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5.5</v>
@@ -5002,7 +5068,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7.5</v>
@@ -5022,7 +5088,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5042,7 +5108,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -5062,7 +5128,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7.5</v>
@@ -5082,7 +5148,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -5102,7 +5168,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5122,7 +5188,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7.5</v>
@@ -5142,7 +5208,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -5162,7 +5228,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -5182,7 +5248,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7.5</v>
@@ -5202,7 +5268,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
@@ -5222,7 +5288,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>5</v>
@@ -5242,7 +5308,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -5262,7 +5328,7 @@
         <v>55</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7.5</v>
@@ -5282,7 +5348,7 @@
         <v>58</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2.5</v>
@@ -5302,7 +5368,7 @@
         <v>61</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>5</v>
@@ -5322,7 +5388,7 @@
         <v>64</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2.5</v>
@@ -5342,7 +5408,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7.5</v>
@@ -5362,7 +5428,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -5382,7 +5448,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5406,28 +5472,28 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>89</v>
@@ -5457,16 +5523,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="23.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,7 +5543,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -5515,17 +5582,21 @@
       <c r="O1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="n">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -5564,22 +5635,25 @@
         <f aca="false">ROUND(AVERAGE(C2,E2,G2,L2),0)</f>
         <v>6</v>
       </c>
-      <c r="N2" s="0" t="str">
+      <c r="N2" s="5" t="str">
         <f aca="false">IF(M2&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R2" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O2:Q2,M2),0)</f>
-        <v>8</v>
+      <c r="R2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O2:R2,M2),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5612,22 +5686,25 @@
         <f aca="false">ROUND(AVERAGE(C3,E3,G3,L3),0)</f>
         <v>8</v>
       </c>
-      <c r="N3" s="0" t="str">
+      <c r="N3" s="5" t="str">
         <f aca="false">IF(M3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R3" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O3:Q3,M3),0)</f>
-        <v>8</v>
+      <c r="R3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O3:R3,M3),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5666,22 +5743,25 @@
         <f aca="false">ROUND(AVERAGE(C4,E4,G4,L4),0)</f>
         <v>8</v>
       </c>
-      <c r="N4" s="0" t="str">
+      <c r="N4" s="5" t="str">
         <f aca="false">IF(M4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="R4" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O4:Q4,M4),0)</f>
-        <v>8</v>
+      <c r="S4" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O4:R4,M4),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5714,21 +5794,24 @@
         <f aca="false">ROUND(AVERAGE(C5,E5,G5,L5),0)</f>
         <v>10</v>
       </c>
-      <c r="N5" s="0" t="str">
+      <c r="N5" s="5" t="str">
         <f aca="false">IF(M5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P5" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="Q5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R5" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O5:Q5,M5),0)</f>
+      <c r="R5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O5:R5,M5),0)</f>
+        <v>10</v>
+      </c>
+      <c r="U5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5765,22 +5848,31 @@
         <f aca="false">ROUND(AVERAGE(C6,E6,G6,L6),0)</f>
         <v>8</v>
       </c>
-      <c r="N6" s="0" t="str">
+      <c r="N6" s="5" t="str">
         <f aca="false">IF(M6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="0" t="n">
+      <c r="O6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="R6" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O6:Q6,M6),0)</f>
-        <v>6</v>
+      <c r="S6" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O6:R6,M6),0)</f>
+        <v>7</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5819,22 +5911,25 @@
         <f aca="false">ROUND(AVERAGE(C7,E7,G7,L7),0)</f>
         <v>8</v>
       </c>
-      <c r="N7" s="0" t="str">
+      <c r="N7" s="5" t="str">
         <f aca="false">IF(M7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O7:Q7,M7),0)</f>
+      <c r="R7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O7:R7,M7),0)</f>
         <v>9</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5867,22 +5962,25 @@
         <f aca="false">ROUND(AVERAGE(C8,E8,G8,L8),0)</f>
         <v>7</v>
       </c>
-      <c r="N8" s="0" t="str">
+      <c r="N8" s="5" t="str">
         <f aca="false">IF(M8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P8" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="Q8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R8" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O8:Q8,M8),0)</f>
+      <c r="R8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O8:R8,M8),0)</f>
         <v>9</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5915,21 +6013,24 @@
         <f aca="false">ROUND(AVERAGE(C9,E9,G9,L9),0)</f>
         <v>10</v>
       </c>
-      <c r="N9" s="0" t="str">
+      <c r="N9" s="5" t="str">
         <f aca="false">IF(M9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P9" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="Q9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R9" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O9:Q9,M9),0)</f>
+      <c r="R9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O9:R9,M9),0)</f>
+        <v>10</v>
+      </c>
+      <c r="U9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5969,22 +6070,25 @@
         <f aca="false">ROUND(AVERAGE(C10,E10,G10,L10),0)</f>
         <v>8</v>
       </c>
-      <c r="N10" s="0" t="str">
+      <c r="N10" s="5" t="str">
         <f aca="false">IF(M10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="R10" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O10:Q10,M10),0)</f>
-        <v>8</v>
+      <c r="S10" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O10:R10,M10),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6020,22 +6124,25 @@
         <f aca="false">ROUND(AVERAGE(C11,E11,G11,L11),0)</f>
         <v>8</v>
       </c>
-      <c r="N11" s="0" t="str">
+      <c r="N11" s="5" t="str">
         <f aca="false">IF(M11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="Q11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R11" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O11:Q11,M11),0)</f>
+      <c r="R11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O11:R11,M11),0)</f>
         <v>7</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,22 +6178,25 @@
         <f aca="false">ROUND(AVERAGE(C12,E12,G12,L12),0)</f>
         <v>8</v>
       </c>
-      <c r="N12" s="0" t="str">
+      <c r="N12" s="5" t="str">
         <f aca="false">IF(M12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="P12" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="Q12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R12" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O12:Q12,M12),0)</f>
+      <c r="R12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O12:R12,M12),0)</f>
         <v>9</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6119,22 +6229,25 @@
         <f aca="false">ROUND(AVERAGE(C13,E13,G13,L13),0)</f>
         <v>9</v>
       </c>
-      <c r="N13" s="0" t="str">
+      <c r="N13" s="5" t="str">
         <f aca="false">IF(M13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O13:Q13,M13),0)</f>
+      <c r="R13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S13" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O13:R13,M13),0)</f>
         <v>9</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,45 +6257,60 @@
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>2</v>
+      <c r="C14" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>1</v>
+      <c r="G14" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>45875</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>45875</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L14" s="0" t="n">
         <f aca="false">I14+K14/2</f>
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="M14" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,G14,L14),0)</f>
-        <v>2</v>
-      </c>
-      <c r="N14" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="N14" s="5" t="str">
         <f aca="false">IF(M14&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="O14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="0" t="n">
+      <c r="O14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O14:Q14,M14),0)</f>
-        <v>5</v>
+      <c r="R14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O14:R14,M14),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6218,22 +6346,25 @@
         <f aca="false">ROUND(AVERAGE(C15,E15,G15,L15),0)</f>
         <v>7</v>
       </c>
-      <c r="N15" s="0" t="str">
+      <c r="N15" s="5" t="str">
         <f aca="false">IF(M15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O15:Q15,M15),0)</f>
-        <v>8</v>
+      <c r="R15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O15:R15,M15),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,22 +6400,25 @@
         <f aca="false">ROUND(AVERAGE(C16,E16,G16,L16),0)</f>
         <v>9</v>
       </c>
-      <c r="N16" s="0" t="str">
+      <c r="N16" s="5" t="str">
         <f aca="false">IF(M16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P16" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="Q16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R16" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O16:Q16,M16),0)</f>
+      <c r="R16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O16:R16,M16),0)</f>
         <v>9</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6317,22 +6451,25 @@
         <f aca="false">ROUND(AVERAGE(C17,E17,G17,L17),0)</f>
         <v>2</v>
       </c>
-      <c r="N17" s="0" t="str">
+      <c r="N17" s="5" t="str">
         <f aca="false">IF(M17&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="R17" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O17:Q17,M17),0)</f>
+      <c r="S17" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O17:R17,M17),0)</f>
         <v>7</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6374,22 +6511,25 @@
         <f aca="false">ROUND(AVERAGE(C18,E18,G18,L18),0)</f>
         <v>6</v>
       </c>
-      <c r="N18" s="0" t="str">
+      <c r="N18" s="5" t="str">
         <f aca="false">IF(M18&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O18:Q18,M18),0)</f>
+      <c r="R18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O18:R18,M18),0)</f>
         <v>7</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6405,39 +6545,52 @@
       <c r="E19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>1</v>
+      <c r="G19" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>45881</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" s="11" t="n">
+        <v>45881</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">I19+K19/2</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M19" s="5" t="n">
         <f aca="false">ROUND(AVERAGE(C19,E19,G19,L19),0)</f>
-        <v>4</v>
-      </c>
-      <c r="N19" s="0" t="str">
+        <v>6</v>
+      </c>
+      <c r="N19" s="5" t="str">
         <f aca="false">IF(M19&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="O19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="0" t="n">
+      <c r="O19" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O19:Q19,M19),0)</f>
-        <v>5</v>
+      <c r="R19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(M19,O19,Q19,R19),0)</f>
+        <v>7</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,22 +6629,25 @@
         <f aca="false">ROUND(AVERAGE(C20,E20,G20,L20),0)</f>
         <v>6</v>
       </c>
-      <c r="N20" s="0" t="str">
+      <c r="N20" s="5" t="str">
         <f aca="false">IF(M20&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="R20" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O20:Q20,M20),0)</f>
+      <c r="S20" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O20:R20,M20),0)</f>
         <v>6</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,22 +6689,25 @@
         <f aca="false">ROUND(AVERAGE(C21,E21,G21,L21),0)</f>
         <v>8</v>
       </c>
-      <c r="N21" s="0" t="str">
+      <c r="N21" s="5" t="str">
         <f aca="false">IF(M21&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O21:Q21,M21),0)</f>
+      <c r="R21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O21:R21,M21),0)</f>
         <v>7</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,22 +6749,25 @@
         <f aca="false">ROUND(AVERAGE(C22,E22,G22,L22),0)</f>
         <v>8</v>
       </c>
-      <c r="N22" s="0" t="str">
+      <c r="N22" s="5" t="str">
         <f aca="false">IF(M22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="P22" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="Q22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="R22" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O22:Q22,M22),0)</f>
+      <c r="S22" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O22:R22,M22),0)</f>
         <v>9</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6641,22 +6803,31 @@
         <f aca="false">ROUND(AVERAGE(C23,E23,G23,L23),0)</f>
         <v>4</v>
       </c>
-      <c r="N23" s="0" t="str">
+      <c r="N23" s="5" t="str">
         <f aca="false">IF(M23&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P23" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="Q23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R23" s="5" t="n">
-        <f aca="false">ROUND(AVERAGE(O23:Q23,M23),0)</f>
-        <v>8</v>
+      <c r="R23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <f aca="false">ROUND(AVERAGE(O23:R23,M23),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U24" s="0" t="n">
+        <f aca="false">COUNTIF(U2:U23,"P")</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6670,8 +6841,12 @@
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R23">
+  <conditionalFormatting sqref="S2:S23">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>4</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6692,11 +6867,11 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -6708,22 +6883,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6737,10 +6912,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7.78</v>
@@ -6762,10 +6937,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5.56</v>
@@ -6782,10 +6957,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -6807,10 +6982,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6821,10 +6996,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6.67</v>
@@ -6835,10 +7010,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5.56</v>
@@ -6849,10 +7024,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>5.56</v>
@@ -6869,10 +7044,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -6894,10 +7069,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.89</v>
@@ -6908,10 +7083,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7.78</v>
@@ -6922,10 +7097,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7.78</v>
@@ -6936,10 +7111,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>6.67</v>
@@ -6950,10 +7125,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5.56</v>
@@ -6964,10 +7139,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2.22</v>
@@ -6978,10 +7153,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2.22</v>
@@ -6992,10 +7167,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2.22</v>
@@ -7012,10 +7187,10 @@
         <v>20</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -7035,10 +7210,10 @@
         <v>23</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -7060,10 +7235,10 @@
         <v>23</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7.78</v>
@@ -7074,10 +7249,10 @@
         <v>23</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2.22</v>
@@ -7094,10 +7269,10 @@
         <v>26</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>6.67</v>
@@ -7117,10 +7292,10 @@
         <v>29</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -7140,10 +7315,10 @@
         <v>32</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -7163,10 +7338,10 @@
         <v>35</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -7188,10 +7363,10 @@
         <v>35</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7.78</v>
@@ -7202,10 +7377,10 @@
         <v>35</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>3.33</v>
@@ -7216,10 +7391,10 @@
         <v>35</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>2.22</v>
@@ -7236,10 +7411,10 @@
         <v>38</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -7259,10 +7434,10 @@
         <v>41</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -7284,10 +7459,10 @@
         <v>41</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>5.56</v>
@@ -7304,10 +7479,10 @@
         <v>44</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -7327,10 +7502,10 @@
         <v>47</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2.22</v>
@@ -7350,10 +7525,10 @@
         <v>50</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>7.78</v>
@@ -7373,10 +7548,10 @@
         <v>53</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -7398,10 +7573,10 @@
         <v>53</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>7.78</v>
@@ -7412,10 +7587,10 @@
         <v>53</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>5.56</v>
@@ -7426,10 +7601,10 @@
         <v>53</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>4.44</v>
@@ -7440,10 +7615,10 @@
         <v>53</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>4.44</v>
@@ -7474,10 +7649,10 @@
         <v>59</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>4.44</v>
@@ -7497,10 +7672,10 @@
         <v>62</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -7522,10 +7697,10 @@
         <v>62</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>7.78</v>
@@ -7536,10 +7711,10 @@
         <v>62</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>4.44</v>
@@ -7550,10 +7725,10 @@
         <v>62</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>4.44</v>
@@ -7564,10 +7739,10 @@
         <v>62</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>4.44</v>
@@ -7578,10 +7753,10 @@
         <v>62</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>3.33</v>
@@ -7598,10 +7773,10 @@
         <v>65</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7.78</v>
@@ -7623,10 +7798,10 @@
         <v>65</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>3.33</v>
@@ -7643,10 +7818,10 @@
         <v>69</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>10</v>
@@ -7668,10 +7843,10 @@
         <v>69</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>8.89</v>
@@ -7682,10 +7857,10 @@
         <v>69</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>4.44</v>
@@ -7696,10 +7871,10 @@
         <v>69</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>3.33</v>
@@ -7716,10 +7891,10 @@
         <v>72</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>7.78</v>
@@ -7741,10 +7916,10 @@
         <v>72</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>7.78</v>
@@ -7755,10 +7930,10 @@
         <v>72</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7.78</v>
@@ -7769,10 +7944,10 @@
         <v>72</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2.22</v>
@@ -7810,11 +7985,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -7825,22 +8000,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7848,10 +8023,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -7865,10 +8040,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>9</v>
@@ -7890,10 +8065,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>9</v>
@@ -7904,10 +8079,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>6</v>
@@ -7918,10 +8093,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>6</v>
@@ -7948,11 +8123,11 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -7964,22 +8139,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,10 +8179,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -8027,10 +8202,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -8052,10 +8227,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -8066,10 +8241,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -8080,10 +8255,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -8094,10 +8269,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6</v>
@@ -8108,10 +8283,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>4</v>
@@ -8128,10 +8303,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -8151,10 +8326,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -8174,10 +8349,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -8199,10 +8374,10 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -8213,10 +8388,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -8233,10 +8408,10 @@
         <v>29</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -8258,10 +8433,10 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6</v>
@@ -8278,10 +8453,10 @@
         <v>32</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -8301,10 +8476,10 @@
         <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -8326,10 +8501,10 @@
         <v>35</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -8340,10 +8515,10 @@
         <v>35</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>6</v>
@@ -8354,10 +8529,10 @@
         <v>35</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>6</v>
@@ -8368,10 +8543,10 @@
         <v>35</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>4</v>
@@ -8382,10 +8557,10 @@
         <v>35</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -8396,10 +8571,10 @@
         <v>35</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>4</v>
@@ -8416,10 +8591,10 @@
         <v>38</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -8439,10 +8614,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -8462,10 +8637,10 @@
         <v>44</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -8499,10 +8674,10 @@
         <v>50</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>6</v>
@@ -8522,10 +8697,10 @@
         <v>53</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -8545,10 +8720,10 @@
         <v>62</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>4</v>
@@ -8582,10 +8757,10 @@
         <v>62</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>4</v>
@@ -8605,10 +8780,10 @@
         <v>65</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -8642,10 +8817,10 @@
         <v>72</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>8</v>
@@ -8665,10 +8840,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>8</v>
@@ -8712,11 +8887,11 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8729,22 +8904,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8752,10 +8927,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -8777,10 +8952,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5.6</v>
@@ -8791,10 +8966,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -8816,10 +8991,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>7.2</v>
@@ -8830,10 +9005,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>6</v>
@@ -8844,10 +9019,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
@@ -8858,10 +9033,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>3.6</v>
@@ -8872,10 +9047,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1.8</v>
@@ -8886,10 +9061,10 @@
         <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>6</v>
@@ -8911,10 +9086,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -8925,10 +9100,10 @@
         <v>59</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>7</v>
@@ -8950,10 +9125,10 @@
         <v>59</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5.6</v>
@@ -8964,10 +9139,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4.2</v>
@@ -8978,10 +9153,10 @@
         <v>59</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2.8</v>
@@ -8992,10 +9167,10 @@
         <v>69</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>6</v>
@@ -9017,10 +9192,10 @@
         <v>69</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>4</v>
@@ -9031,10 +9206,10 @@
         <v>69</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -9045,10 +9220,10 @@
         <v>69</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -9059,10 +9234,10 @@
         <v>69</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -9073,10 +9248,10 @@
         <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>5.4</v>
@@ -9098,10 +9273,10 @@
         <v>75</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5.4</v>
@@ -9112,10 +9287,10 @@
         <v>75</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5.4</v>
@@ -9126,10 +9301,10 @@
         <v>75</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>5.4</v>
@@ -9153,11 +9328,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -9170,22 +9345,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9213,10 +9388,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -9238,10 +9413,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -9252,10 +9427,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -9266,10 +9441,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -9280,10 +9455,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>4</v>
@@ -9294,10 +9469,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -9314,10 +9489,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>4</v>
@@ -9337,10 +9512,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -9362,10 +9537,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -9376,10 +9551,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -9390,10 +9565,10 @@
         <v>20</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>6</v>
@@ -9404,10 +9579,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>6</v>
@@ -9418,10 +9593,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -9432,10 +9607,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6</v>
@@ -9446,10 +9621,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -9460,10 +9635,10 @@
         <v>20</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>4</v>
@@ -9474,10 +9649,10 @@
         <v>20</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>4</v>
@@ -9488,10 +9663,10 @@
         <v>20</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2</v>
@@ -9502,10 +9677,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2</v>
@@ -9522,10 +9697,10 @@
         <v>23</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -9545,10 +9720,10 @@
         <v>26</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
@@ -9570,10 +9745,10 @@
         <v>26</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>4</v>
@@ -9584,10 +9759,10 @@
         <v>26</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>4</v>
@@ -9598,10 +9773,10 @@
         <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2</v>
@@ -9612,10 +9787,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>2</v>
@@ -9632,10 +9807,10 @@
         <v>29</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -9657,10 +9832,10 @@
         <v>29</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>4</v>
@@ -9677,10 +9852,10 @@
         <v>32</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -9700,10 +9875,10 @@
         <v>35</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>4</v>
@@ -9725,10 +9900,10 @@
         <v>35</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2</v>
@@ -9739,10 +9914,10 @@
         <v>35</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2</v>
@@ -9753,10 +9928,10 @@
         <v>35</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2</v>
@@ -9767,10 +9942,10 @@
         <v>35</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2</v>
@@ -9787,10 +9962,10 @@
         <v>38</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>4</v>
@@ -9812,10 +9987,10 @@
         <v>38</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2</v>
@@ -9826,10 +10001,10 @@
         <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2</v>
@@ -9840,10 +10015,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2</v>
@@ -9860,10 +10035,10 @@
         <v>41</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>6</v>
@@ -9883,10 +10058,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>6</v>
@@ -9908,10 +10083,10 @@
         <v>44</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>6</v>
@@ -9942,10 +10117,10 @@
         <v>50</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>6</v>
@@ -9965,10 +10140,10 @@
         <v>53</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>8</v>
@@ -10030,10 +10205,10 @@
         <v>65</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>4</v>
@@ -10055,10 +10230,10 @@
         <v>65</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2</v>
@@ -10069,10 +10244,10 @@
         <v>65</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2</v>
@@ -10083,10 +10258,10 @@
         <v>65</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2</v>
@@ -10097,10 +10272,10 @@
         <v>65</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2</v>
@@ -10131,10 +10306,10 @@
         <v>72</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>6</v>
@@ -10156,10 +10331,10 @@
         <v>72</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>6</v>
@@ -10170,10 +10345,10 @@
         <v>72</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>6</v>
@@ -10184,10 +10359,10 @@
         <v>72</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>6</v>
@@ -10198,10 +10373,10 @@
         <v>72</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>4</v>
@@ -10212,10 +10387,10 @@
         <v>72</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>4</v>
@@ -10226,10 +10401,10 @@
         <v>72</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2</v>
@@ -10273,11 +10448,11 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -10290,22 +10465,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10313,10 +10488,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
@@ -10330,10 +10505,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -10355,10 +10530,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>5</v>
@@ -10369,10 +10544,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
@@ -10383,10 +10558,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>7</v>
@@ -10400,10 +10575,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -10417,10 +10592,10 @@
         <v>50</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>6</v>
@@ -10434,10 +10609,10 @@
         <v>59</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3</v>
@@ -10451,10 +10626,10 @@
         <v>65</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>6</v>
@@ -10476,10 +10651,10 @@
         <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3</v>
@@ -10490,10 +10665,10 @@
         <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>5</v>
@@ -10507,10 +10682,10 @@
         <v>72</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>8</v>
@@ -10532,10 +10707,10 @@
         <v>72</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>5</v>
@@ -10546,10 +10721,10 @@
         <v>75</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>5</v>
@@ -10571,10 +10746,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -10598,11 +10773,11 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -10617,22 +10792,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10660,10 +10835,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -10697,10 +10872,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -10720,10 +10895,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -10771,10 +10946,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -10796,10 +10971,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -10810,10 +10985,10 @@
         <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -10830,10 +11005,10 @@
         <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -10881,10 +11056,10 @@
         <v>44</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>

--- a/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
+++ b/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="558">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -68,9 +68,6 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lourdes Elizabeth</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
     <t xml:space="preserve">Baja</t>
   </si>
   <si>
+    <t xml:space="preserve">se fue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matías</t>
   </si>
   <si>
@@ -318,9 +318,6 @@
   </si>
   <si>
     <t xml:space="preserve">Aprobo con Chaya y Casas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se fue</t>
   </si>
   <si>
     <t xml:space="preserve">Finalizado</t>
@@ -1988,139 +1985,110 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R25" activeCellId="0" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="35.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="5" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="P1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F2" s="2" t="n">
         <v>45791</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>45803</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>45805</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>45833</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <v>45854</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <f aca="false">COUNTIF(E2:L2,"P")</f>
-        <v>8</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <f aca="false">ROUND(N2*10/$P$1,0)</f>
-        <v>10</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>11</v>
+      <c r="P2" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>45903</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
@@ -2154,19 +2122,28 @@
         <f aca="false">ROUND(N3*10/$P$1,0)</f>
         <v>10</v>
       </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
@@ -2187,32 +2164,41 @@
         <v>10</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">COUNTIF(E4:L4,"P")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" s="3" t="n">
         <f aca="false">ROUND(N4*10/$P$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
@@ -2233,32 +2219,41 @@
         <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="n">
         <f aca="false">COUNTIF(E5:L5,"P")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" s="3" t="n">
         <f aca="false">ROUND(N5*10/$P$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
@@ -2279,32 +2274,41 @@
         <v>10</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="n">
         <f aca="false">COUNTIF(E6:L6,"P")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" s="3" t="n">
         <f aca="false">ROUND(N6*10/$P$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
@@ -2325,32 +2329,41 @@
         <v>10</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="0" t="n">
         <f aca="false">COUNTIF(E7:L7,"P")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" s="3" t="n">
         <f aca="false">ROUND(N7*10/$P$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>10</v>
@@ -2384,19 +2397,28 @@
         <f aca="false">ROUND(N8*10/$P$1,0)</f>
         <v>10</v>
       </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>10</v>
@@ -2430,22 +2452,31 @@
         <f aca="false">ROUND(N9*10/$P$1,0)</f>
         <v>10</v>
       </c>
+      <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>10</v>
@@ -2470,28 +2501,37 @@
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">COUNTIF(E10:L10,"P")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" s="3" t="n">
         <f aca="false">ROUND(N10*10/$P$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>10</v>
@@ -2516,25 +2556,34 @@
       </c>
       <c r="N11" s="0" t="n">
         <f aca="false">COUNTIF(E11:L11,"P")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" s="3" t="n">
         <f aca="false">ROUND(N11*10/$P$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>10</v>
@@ -2568,19 +2617,28 @@
         <f aca="false">ROUND(N12*10/$P$1,0)</f>
         <v>10</v>
       </c>
+      <c r="P12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>10</v>
@@ -2614,19 +2672,28 @@
         <f aca="false">ROUND(N13*10/$P$1,0)</f>
         <v>10</v>
       </c>
+      <c r="P13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>10</v>
@@ -2660,19 +2727,28 @@
         <f aca="false">ROUND(N14*10/$P$1,0)</f>
         <v>10</v>
       </c>
+      <c r="P14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>10</v>
@@ -2706,19 +2782,28 @@
         <f aca="false">ROUND(N15*10/$P$1,0)</f>
         <v>10</v>
       </c>
+      <c r="P15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>10</v>
@@ -2752,25 +2837,34 @@
         <f aca="false">ROUND(N16*10/$P$1,0)</f>
         <v>10</v>
       </c>
+      <c r="P16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>10</v>
@@ -2792,31 +2886,40 @@
       </c>
       <c r="N17" s="0" t="n">
         <f aca="false">COUNTIF(E17:L17,"P")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" s="3" t="n">
         <f aca="false">ROUND(N17*10/$P$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>10</v>
@@ -2838,25 +2941,34 @@
       </c>
       <c r="N18" s="0" t="n">
         <f aca="false">COUNTIF(E18:L18,"P")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O18" s="3" t="n">
         <f aca="false">ROUND(N18*10/$P$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>10</v>
@@ -2890,19 +3002,28 @@
         <f aca="false">ROUND(N19*10/$P$1,0)</f>
         <v>10</v>
       </c>
+      <c r="P19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>10</v>
@@ -2926,32 +3047,38 @@
         <v>10</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="N20" s="0" t="n">
         <f aca="false">COUNTIF(E20:L20,"P")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O20" s="3" t="n">
         <f aca="false">ROUND(N20*10/$P$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>10</v>
@@ -2975,29 +3102,41 @@
         <v>10</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="N21" s="0" t="n">
         <f aca="false">COUNTIF(E21:L21,"P")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O21" s="3" t="n">
         <f aca="false">ROUND(N21*10/$P$1,0)</f>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>10</v>
@@ -3021,29 +3160,38 @@
         <v>10</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N22" s="0" t="n">
         <f aca="false">COUNTIF(E22:L22,"P")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" s="3" t="n">
         <f aca="false">ROUND(N22*10/$P$1,0)</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>10</v>
@@ -3067,48 +3215,124 @@
         <v>10</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N23" s="0" t="n">
         <f aca="false">COUNTIF(E23:L23,"P")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O23" s="3" t="n">
         <f aca="false">ROUND(N23*10/$P$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E23,"P")</f>
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:L24,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <f aca="false">ROUND(N24*10/$P$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="n">
+        <f aca="false">COUNTIF(E3:E24,"P")</f>
         <v>21</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">COUNTIF(F2:F23,"P")</f>
+      <c r="F25" s="0" t="n">
+        <f aca="false">COUNTIF(F3:F24,"P")</f>
         <v>21</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">COUNTIF(G2:G23,"P")</f>
+      <c r="G25" s="0" t="n">
+        <f aca="false">COUNTIF(G3:G24,"P")</f>
         <v>22</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <f aca="false">COUNTIF(H2:H23,"P")</f>
+      <c r="H25" s="0" t="n">
+        <f aca="false">COUNTIF(H3:H24,"P")</f>
         <v>22</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <f aca="false">COUNTIF(I2:I23,"P")</f>
+      <c r="I25" s="0" t="n">
+        <f aca="false">COUNTIF(I3:I24,"P")</f>
         <v>22</v>
       </c>
-      <c r="J24" s="0" t="n">
-        <f aca="false">COUNTIF(J2:J23,"P")</f>
+      <c r="J25" s="0" t="n">
+        <f aca="false">COUNTIF(J3:J24,"P")</f>
         <v>22</v>
       </c>
-      <c r="K24" s="0" t="n">
-        <f aca="false">COUNTIF(K2:K23,"P")</f>
+      <c r="K25" s="0" t="n">
+        <f aca="false">COUNTIF(K3:K24,"P")</f>
         <v>20</v>
       </c>
-      <c r="L24" s="0" t="n">
-        <f aca="false">COUNTIF(L2:L23,"P")</f>
+      <c r="L25" s="0" t="n">
+        <f aca="false">COUNTIF(L3:L24,"P")</f>
+        <v>20</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">COUNTIF(P3:P24,"P")</f>
+        <v>18</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">COUNTIF(Q3:Q24,"P")</f>
+        <v>18</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">COUNTIF(R3:R24,"P")</f>
         <v>20</v>
       </c>
     </row>
@@ -3131,10 +3355,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="R25 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -3147,22 +3371,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,10 +3394,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>470</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -3195,10 +3419,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>471</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>472</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -3206,13 +3430,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>473</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>474</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -3223,13 +3447,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>475</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>476</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>6</v>
@@ -3240,13 +3464,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>477</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>478</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>9</v>
@@ -3257,13 +3481,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>479</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>480</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>6</v>
@@ -3274,13 +3498,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>482</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>8</v>
@@ -3299,13 +3523,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>484</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
@@ -3313,13 +3537,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>8</v>
@@ -3330,13 +3554,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -3355,13 +3579,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -3372,10 +3596,10 @@
         <v>69</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>489</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>9</v>
@@ -3389,10 +3613,10 @@
         <v>72</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>8</v>
@@ -3414,10 +3638,10 @@
         <v>72</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>491</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>492</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>6</v>
@@ -3442,10 +3666,10 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="R25 J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -3454,7 +3678,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3524,19 +3748,19 @@
         <v>3</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>494</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>495</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
       <c r="F3" s="0" t="n">
@@ -3563,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="0" t="n">
@@ -3585,7 +3809,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="0" t="n">
@@ -3610,7 +3834,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="0" t="n">
@@ -3629,7 +3853,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1"/>
       <c r="G7" s="0" t="n">
@@ -3645,7 +3869,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="0" t="n">
@@ -3670,7 +3894,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="0" t="n">
@@ -3695,7 +3919,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="0" t="n">
@@ -3720,7 +3944,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1"/>
       <c r="F11" s="0" t="n">
@@ -3739,7 +3963,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="0" t="n">
@@ -3764,7 +3988,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" s="0" t="n">
@@ -3786,7 +4010,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14" s="0" t="n">
@@ -3805,7 +4029,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1</v>
@@ -3832,7 +4056,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1"/>
       <c r="E16" s="0" t="n">
@@ -3854,7 +4078,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1"/>
       <c r="G17" s="0" t="n">
@@ -3870,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1"/>
       <c r="E18" s="0" t="n">
@@ -3889,7 +4113,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1"/>
       <c r="G19" s="0" t="n">
@@ -3905,7 +4129,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1"/>
       <c r="G20" s="0" t="n">
@@ -4004,10 +4228,10 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
+      <selection pane="topLeft" activeCell="I51" activeCellId="1" sqref="R25 I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.34"/>
@@ -4022,19 +4246,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,7 +4275,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -4065,16 +4289,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -4088,16 +4312,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -4111,16 +4335,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -4139,13 +4363,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -4153,13 +4377,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7</v>
@@ -4167,13 +4391,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
@@ -4181,13 +4405,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -4195,13 +4419,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -4209,13 +4433,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -4223,13 +4447,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>5</v>
@@ -4237,13 +4461,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>4</v>
@@ -4254,7 +4478,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -4268,16 +4492,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -4296,13 +4520,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -4310,13 +4534,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -4324,13 +4548,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7</v>
@@ -4338,13 +4562,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>6</v>
@@ -4352,13 +4576,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5</v>
@@ -4369,16 +4593,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -4392,16 +4616,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -4420,13 +4644,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -4437,16 +4661,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -4460,7 +4684,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -4474,16 +4698,16 @@
         <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7</v>
@@ -4497,16 +4721,16 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -4525,13 +4749,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -4539,13 +4763,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>5</v>
@@ -4556,7 +4780,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -4570,16 +4794,16 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -4598,13 +4822,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -4612,13 +4836,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>6</v>
@@ -4629,16 +4853,16 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>8</v>
@@ -4652,16 +4876,16 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>8</v>
@@ -4680,13 +4904,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>7</v>
@@ -4697,16 +4921,16 @@
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>8</v>
@@ -4720,7 +4944,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>1</v>
@@ -4734,16 +4958,16 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>7</v>
@@ -4762,13 +4986,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>7</v>
@@ -4776,13 +5000,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>6</v>
@@ -4790,13 +5014,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>6</v>
@@ -4830,7 +5054,7 @@
         <v>71</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>8</v>
@@ -4853,7 +5077,7 @@
         <v>74</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>10</v>
@@ -4878,7 +5102,7 @@
         <v>74</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>9</v>
@@ -4892,7 +5116,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>9</v>
@@ -4906,7 +5130,7 @@
         <v>74</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7</v>
@@ -4920,7 +5144,7 @@
         <v>74</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>7</v>
@@ -4934,7 +5158,7 @@
         <v>74</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>6</v>
@@ -4948,7 +5172,7 @@
         <v>74</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>5</v>
@@ -4956,7 +5180,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H52" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I52" s="0" t="n">
         <f aca="false">COUNTIF(I2:I51,"&gt;0")</f>
@@ -4988,10 +5212,10 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="R25 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.33"/>
@@ -5008,10 +5232,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,7 +5252,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7.5</v>
@@ -5039,16 +5263,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5.5</v>
@@ -5059,16 +5283,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7.5</v>
@@ -5079,16 +5303,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -5099,16 +5323,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -5119,16 +5343,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7.5</v>
@@ -5139,16 +5363,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -5159,16 +5383,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -5179,16 +5403,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7.5</v>
@@ -5199,16 +5423,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -5219,16 +5443,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -5239,16 +5463,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7.5</v>
@@ -5259,16 +5483,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
@@ -5279,16 +5503,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>5</v>
@@ -5299,16 +5523,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -5319,16 +5543,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7.5</v>
@@ -5339,16 +5563,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2.5</v>
@@ -5359,16 +5583,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>5</v>
@@ -5379,16 +5603,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2.5</v>
@@ -5408,7 +5632,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7.5</v>
@@ -5428,7 +5652,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -5448,7 +5672,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -5473,27 +5697,27 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="R25 C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>557</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>558</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>89</v>
@@ -5525,11 +5749,11 @@
   </sheetPr>
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O14" activeCellId="1" sqref="R25 O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -5653,7 +5877,7 @@
         <v>8</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,7 +5885,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>8</v>
@@ -5712,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -5769,7 +5993,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -5820,7 +6044,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>8</v>
@@ -5880,7 +6104,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
@@ -5937,7 +6161,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10</v>
@@ -5988,7 +6212,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>10</v>
@@ -6039,7 +6263,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>8</v>
@@ -6096,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
@@ -6150,7 +6374,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>8</v>
@@ -6204,7 +6428,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>10</v>
@@ -6255,7 +6479,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>7</v>
@@ -6318,7 +6542,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
@@ -6372,7 +6596,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>8</v>
@@ -6426,7 +6650,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -6477,7 +6701,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>4</v>
@@ -6529,7 +6753,7 @@
         <v>7</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,7 +6761,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>8</v>
@@ -6598,7 +6822,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>6</v>
@@ -6647,7 +6871,7 @@
         <v>6</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,7 +6931,7 @@
         <v>7</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6868,10 +7092,10 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+      <selection pane="topLeft" activeCell="I29" activeCellId="1" sqref="R25 I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -6883,22 +7107,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6912,10 +7136,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7.78</v>
@@ -6937,10 +7161,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5.56</v>
@@ -6951,16 +7175,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -6979,13 +7203,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -6993,13 +7217,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6.67</v>
@@ -7007,13 +7231,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5.56</v>
@@ -7021,13 +7245,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>5.56</v>
@@ -7038,16 +7262,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -7066,13 +7290,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.89</v>
@@ -7080,13 +7304,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7.78</v>
@@ -7094,13 +7318,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7.78</v>
@@ -7108,13 +7332,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>6.67</v>
@@ -7122,13 +7346,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5.56</v>
@@ -7136,13 +7360,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2.22</v>
@@ -7150,13 +7374,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>129</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2.22</v>
@@ -7164,13 +7388,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>131</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2.22</v>
@@ -7181,16 +7405,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>133</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -7204,16 +7428,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -7232,13 +7456,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>137</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7.78</v>
@@ -7246,13 +7470,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>139</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2.22</v>
@@ -7263,16 +7487,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>6.67</v>
@@ -7286,16 +7510,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -7309,16 +7533,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -7332,16 +7556,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -7360,13 +7584,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7.78</v>
@@ -7374,13 +7598,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>3.33</v>
@@ -7388,13 +7612,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>2.22</v>
@@ -7405,16 +7629,16 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>154</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -7428,16 +7652,16 @@
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>156</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -7456,13 +7680,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>158</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>5.56</v>
@@ -7473,16 +7697,16 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -7496,16 +7720,16 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>162</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2.22</v>
@@ -7519,16 +7743,16 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>7.78</v>
@@ -7542,16 +7766,16 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>10</v>
@@ -7570,13 +7794,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>7.78</v>
@@ -7584,13 +7808,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>5.56</v>
@@ -7598,13 +7822,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>171</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>4.44</v>
@@ -7612,13 +7836,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>4.44</v>
@@ -7629,7 +7853,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1</v>
@@ -7643,16 +7867,16 @@
         <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>4.44</v>
@@ -7666,16 +7890,16 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -7694,13 +7918,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>7.78</v>
@@ -7708,13 +7932,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>4.44</v>
@@ -7722,13 +7946,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>4.44</v>
@@ -7736,13 +7960,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>183</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>4.44</v>
@@ -7750,13 +7974,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>3.33</v>
@@ -7767,16 +7991,16 @@
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>187</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7.78</v>
@@ -7795,13 +8019,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>189</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>3.33</v>
@@ -7818,10 +8042,10 @@
         <v>69</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>191</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>10</v>
@@ -7843,10 +8067,10 @@
         <v>69</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>8.89</v>
@@ -7857,10 +8081,10 @@
         <v>69</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>4.44</v>
@@ -7871,10 +8095,10 @@
         <v>69</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>3.33</v>
@@ -7891,10 +8115,10 @@
         <v>72</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>7.78</v>
@@ -7916,10 +8140,10 @@
         <v>72</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>7.78</v>
@@ -7930,10 +8154,10 @@
         <v>72</v>
       </c>
       <c r="D56" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7.78</v>
@@ -7944,10 +8168,10 @@
         <v>72</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2.22</v>
@@ -7986,10 +8210,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="R25 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -8000,33 +8224,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -8040,10 +8264,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>9</v>
@@ -8065,10 +8289,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>209</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>9</v>
@@ -8079,10 +8303,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>211</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>6</v>
@@ -8093,10 +8317,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>213</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>6</v>
@@ -8124,10 +8348,10 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="R25 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -8139,22 +8363,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8173,16 +8397,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>214</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>215</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -8196,16 +8420,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -8224,13 +8448,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>219</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -8238,13 +8462,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>221</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -8252,13 +8476,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>223</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -8266,13 +8490,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6</v>
@@ -8280,13 +8504,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>4</v>
@@ -8297,16 +8521,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>228</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -8320,16 +8544,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -8343,16 +8567,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>232</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>10</v>
@@ -8371,13 +8595,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -8385,13 +8609,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>235</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -8402,16 +8626,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -8430,13 +8654,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>239</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6</v>
@@ -8447,16 +8671,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -8470,16 +8694,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>243</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -8498,13 +8722,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>245</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -8512,13 +8736,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>246</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>247</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>6</v>
@@ -8526,13 +8750,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>249</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>6</v>
@@ -8540,13 +8764,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>250</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>251</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>4</v>
@@ -8554,13 +8778,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>253</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -8568,13 +8792,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>255</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>4</v>
@@ -8585,16 +8809,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>257</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -8608,16 +8832,16 @@
         <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -8631,16 +8855,16 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>260</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -8654,7 +8878,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
@@ -8668,16 +8892,16 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>262</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>6</v>
@@ -8691,16 +8915,16 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>264</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -8714,16 +8938,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>4</v>
@@ -8737,7 +8961,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -8751,16 +8975,16 @@
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>268</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>4</v>
@@ -8774,16 +8998,16 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>270</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -8817,10 +9041,10 @@
         <v>72</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>272</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>8</v>
@@ -8840,10 +9064,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>274</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>8</v>
@@ -8888,10 +9112,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="R25 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8904,22 +9128,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8927,10 +9151,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>276</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -8952,10 +9176,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>278</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5.6</v>
@@ -8963,13 +9187,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>280</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -8988,13 +9212,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>282</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>7.2</v>
@@ -9002,13 +9226,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>6</v>
@@ -9016,13 +9240,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>284</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>285</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
@@ -9030,13 +9254,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>286</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>287</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>3.6</v>
@@ -9044,13 +9268,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>289</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1.8</v>
@@ -9058,13 +9282,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>291</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>6</v>
@@ -9083,13 +9307,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>293</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>6</v>
@@ -9097,13 +9321,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>294</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>295</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>7</v>
@@ -9122,13 +9346,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5.6</v>
@@ -9136,13 +9360,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>298</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4.2</v>
@@ -9150,13 +9374,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2.8</v>
@@ -9167,10 +9391,10 @@
         <v>69</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>301</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>6</v>
@@ -9192,10 +9416,10 @@
         <v>69</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>302</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>303</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>4</v>
@@ -9206,10 +9430,10 @@
         <v>69</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>304</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>305</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -9220,10 +9444,10 @@
         <v>69</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>307</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -9234,10 +9458,10 @@
         <v>69</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>309</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -9248,10 +9472,10 @@
         <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>311</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>5.4</v>
@@ -9273,10 +9497,10 @@
         <v>75</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>313</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5.4</v>
@@ -9287,10 +9511,10 @@
         <v>75</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>315</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5.4</v>
@@ -9301,10 +9525,10 @@
         <v>75</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>5.4</v>
@@ -9329,10 +9553,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="R25 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -9345,22 +9569,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9382,16 +9606,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>319</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
@@ -9410,13 +9634,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>321</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -9424,13 +9648,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>323</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -9438,13 +9662,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>325</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -9452,13 +9676,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>326</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>327</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>4</v>
@@ -9466,13 +9690,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -9483,16 +9707,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>4</v>
@@ -9506,16 +9730,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>333</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -9534,13 +9758,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -9548,13 +9772,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>337</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -9562,13 +9786,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>338</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>339</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>6</v>
@@ -9576,13 +9800,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>341</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>6</v>
@@ -9590,13 +9814,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>342</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>343</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -9604,13 +9828,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>345</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6</v>
@@ -9618,13 +9842,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>346</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>347</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -9632,13 +9856,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>349</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>4</v>
@@ -9646,13 +9870,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>350</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>351</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>4</v>
@@ -9660,13 +9884,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>352</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>353</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2</v>
@@ -9674,13 +9898,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>354</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>355</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2</v>
@@ -9691,16 +9915,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>356</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>357</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -9714,16 +9938,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>358</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>359</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>6</v>
@@ -9742,13 +9966,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>360</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>361</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>4</v>
@@ -9756,13 +9980,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>362</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>363</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>4</v>
@@ -9770,13 +9994,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>365</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2</v>
@@ -9784,13 +10008,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>366</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>367</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>2</v>
@@ -9801,16 +10025,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>368</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>369</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -9829,13 +10053,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>370</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>371</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>4</v>
@@ -9846,16 +10070,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>372</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>373</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -9869,16 +10093,16 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>374</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>375</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>4</v>
@@ -9897,13 +10121,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>377</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2</v>
@@ -9911,13 +10135,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>378</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>379</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2</v>
@@ -9925,13 +10149,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>381</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2</v>
@@ -9939,13 +10163,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>382</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>383</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2</v>
@@ -9956,16 +10180,16 @@
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>384</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>385</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>4</v>
@@ -9984,13 +10208,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>386</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>387</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2</v>
@@ -9998,13 +10222,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>388</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>389</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2</v>
@@ -10012,13 +10236,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2</v>
@@ -10029,16 +10253,16 @@
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>392</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>393</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>6</v>
@@ -10052,16 +10276,16 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>395</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>6</v>
@@ -10080,13 +10304,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>396</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>397</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>6</v>
@@ -10097,7 +10321,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1</v>
@@ -10111,16 +10335,16 @@
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>399</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>6</v>
@@ -10134,16 +10358,16 @@
         <v>15</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>400</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>401</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>8</v>
@@ -10157,7 +10381,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
@@ -10171,7 +10395,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
@@ -10185,7 +10409,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
@@ -10199,16 +10423,16 @@
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>4</v>
@@ -10227,13 +10451,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>404</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2</v>
@@ -10241,13 +10465,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>406</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2</v>
@@ -10255,13 +10479,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>408</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2</v>
@@ -10269,13 +10493,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2</v>
@@ -10306,10 +10530,10 @@
         <v>72</v>
       </c>
       <c r="D55" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>411</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>412</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>6</v>
@@ -10331,10 +10555,10 @@
         <v>72</v>
       </c>
       <c r="D56" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>413</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>414</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>6</v>
@@ -10345,10 +10569,10 @@
         <v>72</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>416</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>6</v>
@@ -10359,10 +10583,10 @@
         <v>72</v>
       </c>
       <c r="D58" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>6</v>
@@ -10373,10 +10597,10 @@
         <v>72</v>
       </c>
       <c r="D59" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>420</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>4</v>
@@ -10387,10 +10611,10 @@
         <v>72</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>421</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>422</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>4</v>
@@ -10401,10 +10625,10 @@
         <v>72</v>
       </c>
       <c r="D61" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>424</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2</v>
@@ -10449,10 +10673,10 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="R25 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -10465,22 +10689,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10488,10 +10712,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>425</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>426</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
@@ -10502,13 +10726,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>427</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>428</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -10527,13 +10751,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>430</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>5</v>
@@ -10541,13 +10765,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>431</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>432</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
@@ -10555,13 +10779,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>433</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>434</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>7</v>
@@ -10572,13 +10796,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>436</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>8</v>
@@ -10589,13 +10813,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>6</v>
@@ -10606,13 +10830,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3</v>
@@ -10623,13 +10847,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>440</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>6</v>
@@ -10648,13 +10872,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>441</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>442</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3</v>
@@ -10665,10 +10889,10 @@
         <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>443</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>444</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>5</v>
@@ -10682,10 +10906,10 @@
         <v>72</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>445</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>446</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>8</v>
@@ -10707,10 +10931,10 @@
         <v>72</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>448</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>5</v>
@@ -10721,10 +10945,10 @@
         <v>75</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>450</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>5</v>
@@ -10746,10 +10970,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>451</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>452</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -10774,10 +10998,10 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="R25 F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -10792,22 +11016,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10829,16 +11053,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>453</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>454</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -10852,7 +11076,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -10866,16 +11090,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>455</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>456</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -10889,16 +11113,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>457</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>458</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -10912,7 +11136,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -10926,7 +11150,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -10940,16 +11164,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>460</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -10968,13 +11192,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>461</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>462</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -10982,13 +11206,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>463</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>464</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -10999,16 +11223,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>465</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>466</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -11022,7 +11246,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -11036,7 +11260,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -11050,16 +11274,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>468</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -11073,7 +11297,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -11087,7 +11311,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -11101,7 +11325,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -11115,7 +11339,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -11129,7 +11353,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -11143,7 +11367,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -11157,7 +11381,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>

--- a/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
+++ b/inasistencias-5a-Electornica/alumnos-5a-Electronica.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="558">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -1985,13 +1985,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R25" activeCellId="0" sqref="R25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S25" activeCellId="0" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -2076,6 +2076,9 @@
       <c r="R2" s="2" t="n">
         <v>45903</v>
       </c>
+      <c r="S2" s="2" t="n">
+        <v>45910</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -2131,6 +2134,9 @@
       <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S3" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -2186,6 +2192,9 @@
       <c r="R4" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S4" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -2241,6 +2250,9 @@
       <c r="R5" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S5" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -2296,6 +2308,9 @@
       <c r="R6" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S6" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -2351,6 +2366,9 @@
       <c r="R7" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S7" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -2406,6 +2424,9 @@
       <c r="R8" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S8" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -2461,6 +2482,9 @@
       <c r="R9" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S9" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -2514,6 +2538,9 @@
         <v>17</v>
       </c>
       <c r="R10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2571,6 +2598,9 @@
       <c r="R11" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S11" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2624,6 +2654,9 @@
         <v>10</v>
       </c>
       <c r="R12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2681,6 +2714,9 @@
       <c r="R13" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S13" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2736,6 +2772,9 @@
       <c r="R14" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S14" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2791,6 +2830,9 @@
       <c r="R15" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S15" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2846,6 +2888,9 @@
       <c r="R16" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="S16" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2901,6 +2946,9 @@
       <c r="R17" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S17" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2956,6 +3004,9 @@
       <c r="R18" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S18" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -3011,6 +3062,9 @@
       <c r="R19" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S19" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -3066,6 +3120,9 @@
       <c r="R20" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S20" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -3124,6 +3181,9 @@
       <c r="R21" s="0" t="s">
         <v>67</v>
       </c>
+      <c r="S21" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -3179,6 +3239,9 @@
       <c r="R22" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S22" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -3234,6 +3297,9 @@
       <c r="R23" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="S23" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -3287,6 +3353,9 @@
         <v>10</v>
       </c>
       <c r="R24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3334,6 +3403,10 @@
       <c r="R25" s="0" t="n">
         <f aca="false">COUNTIF(R3:R24,"P")</f>
         <v>20</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <f aca="false">COUNTIF(S3:S24,"P")</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3355,10 +3428,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="R25 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="S25 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -3666,10 +3739,10 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="R25 J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="S25 J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -4228,10 +4301,10 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I51" activeCellId="1" sqref="R25 I51"/>
+      <selection pane="topLeft" activeCell="I51" activeCellId="1" sqref="S25 I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.34"/>
@@ -5212,10 +5285,10 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="R25 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="S25 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.33"/>
@@ -5697,10 +5770,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="R25 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="S25 C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5750,10 +5823,10 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="1" sqref="R25 O14"/>
+      <selection pane="topLeft" activeCell="O14" activeCellId="1" sqref="S25 O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -7092,10 +7165,10 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="1" sqref="R25 I29"/>
+      <selection pane="topLeft" activeCell="I29" activeCellId="1" sqref="S25 I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -8210,10 +8283,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="R25 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="S25 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
@@ -8348,10 +8421,10 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="R25 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="S25 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
@@ -9112,10 +9185,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="R25 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="S25 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -9553,10 +9626,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="R25 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="S25 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.07"/>
@@ -10673,10 +10746,10 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="R25 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="S25 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -10998,10 +11071,10 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="R25 F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="S25 F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
